--- a/BackTest/2019-11-12 BackTest ABT.xlsx
+++ b/BackTest/2019-11-12 BackTest ABT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>24</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L12" t="n">
         <v>229.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>26</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>40</v>
+      </c>
       <c r="L13" t="n">
         <v>230.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>28</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>40</v>
+      </c>
       <c r="L14" t="n">
         <v>231.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>28</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>232.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>26.31578947368421</v>
+      </c>
       <c r="L16" t="n">
         <v>232.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>31</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>5.263157894736842</v>
+      </c>
       <c r="L17" t="n">
         <v>233.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>34</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>36.84210526315789</v>
+      </c>
       <c r="L18" t="n">
         <v>233.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>39</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>56.52173913043478</v>
+      </c>
       <c r="L19" t="n">
         <v>234.8</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>44</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>13.04347826086956</v>
+      </c>
       <c r="L20" t="n">
         <v>235.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>44</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>235.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>44</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L22" t="n">
         <v>235.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>47</v>
       </c>
       <c r="K23" t="n">
-        <v>17.07317073170732</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L23" t="n">
         <v>235.8</v>
@@ -1466,7 +1488,7 @@
         <v>49</v>
       </c>
       <c r="K24" t="n">
-        <v>20.93023255813954</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L24" t="n">
         <v>235.7</v>
@@ -1515,7 +1537,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="n">
-        <v>22.72727272727273</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L25" t="n">
         <v>235.9</v>
@@ -1564,7 +1586,7 @@
         <v>53</v>
       </c>
       <c r="K26" t="n">
-        <v>20.93023255813954</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>236.3</v>
@@ -1613,7 +1635,7 @@
         <v>55</v>
       </c>
       <c r="K27" t="n">
-        <v>15.55555555555556</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L27" t="n">
         <v>236.7</v>
@@ -1662,7 +1684,7 @@
         <v>57</v>
       </c>
       <c r="K28" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>236.6</v>
@@ -1711,7 +1733,7 @@
         <v>61</v>
       </c>
       <c r="K29" t="n">
-        <v>4.347826086956522</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L29" t="n">
         <v>235.6</v>
@@ -1760,7 +1782,7 @@
         <v>66</v>
       </c>
       <c r="K30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>235.6</v>
@@ -1809,7 +1831,7 @@
         <v>67</v>
       </c>
       <c r="K31" t="n">
-        <v>8.695652173913043</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L31" t="n">
         <v>235.7</v>
@@ -1860,7 +1882,7 @@
         <v>68</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>235.7</v>
@@ -1911,7 +1933,7 @@
         <v>73</v>
       </c>
       <c r="K33" t="n">
-        <v>-6.382978723404255</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>235.5</v>
@@ -1962,7 +1984,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.382978723404255</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L34" t="n">
         <v>235.3</v>
@@ -2013,7 +2035,7 @@
         <v>78</v>
       </c>
       <c r="K35" t="n">
-        <v>-12</v>
+        <v>-36</v>
       </c>
       <c r="L35" t="n">
         <v>234.5</v>
@@ -2064,7 +2086,7 @@
         <v>78</v>
       </c>
       <c r="K36" t="n">
-        <v>-10.20408163265306</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L36" t="n">
         <v>233.6</v>
@@ -2115,7 +2137,7 @@
         <v>81</v>
       </c>
       <c r="K37" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>232.6</v>
@@ -2172,7 +2194,7 @@
         <v>88</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.703703703703703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L38" t="n">
         <v>232.5</v>
@@ -2231,7 +2253,7 @@
         <v>90</v>
       </c>
       <c r="K39" t="n">
-        <v>-17.64705882352941</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L39" t="n">
         <v>232.6</v>
@@ -2294,7 +2316,7 @@
         <v>91</v>
       </c>
       <c r="K40" t="n">
-        <v>-10.63829787234043</v>
+        <v>-25</v>
       </c>
       <c r="L40" t="n">
         <v>232.1</v>
@@ -2355,7 +2377,7 @@
         <v>94</v>
       </c>
       <c r="K41" t="n">
-        <v>-4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L41" t="n">
         <v>231.8</v>
@@ -2414,7 +2436,7 @@
         <v>103</v>
       </c>
       <c r="K42" t="n">
-        <v>-18.64406779661017</v>
+        <v>-20</v>
       </c>
       <c r="L42" t="n">
         <v>230.7</v>
@@ -2471,7 +2493,7 @@
         <v>105</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L43" t="n">
         <v>230.3</v>
@@ -2528,7 +2550,7 @@
         <v>110</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.31147540983606</v>
+        <v>-25</v>
       </c>
       <c r="L44" t="n">
         <v>229.2</v>
@@ -2585,7 +2607,7 @@
         <v>118</v>
       </c>
       <c r="K45" t="n">
-        <v>-12.12121212121212</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>229.2</v>
@@ -2642,7 +2664,7 @@
         <v>118</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.84615384615385</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L46" t="n">
         <v>229.2</v>
@@ -2699,7 +2721,7 @@
         <v>120</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.692307692307693</v>
+        <v>-6.25</v>
       </c>
       <c r="L47" t="n">
         <v>229.7</v>
@@ -2756,7 +2778,7 @@
         <v>121</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.25</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L48" t="n">
         <v>229.4</v>
@@ -2813,7 +2835,7 @@
         <v>124</v>
       </c>
       <c r="K49" t="n">
-        <v>-4.761904761904762</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L49" t="n">
         <v>229</v>
@@ -2870,7 +2892,7 @@
         <v>129</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.761904761904762</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L50" t="n">
         <v>229.2</v>
@@ -2927,7 +2949,7 @@
         <v>136</v>
       </c>
       <c r="K51" t="n">
-        <v>-15.94202898550724</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L51" t="n">
         <v>228.4</v>
@@ -2984,7 +3006,7 @@
         <v>137</v>
       </c>
       <c r="K52" t="n">
-        <v>-15.94202898550724</v>
+        <v>-6.25</v>
       </c>
       <c r="L52" t="n">
         <v>228.4</v>
@@ -3041,7 +3063,7 @@
         <v>138</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L53" t="n">
         <v>228.3</v>
@@ -3098,7 +3120,7 @@
         <v>140</v>
       </c>
       <c r="K54" t="n">
-        <v>-13.84615384615385</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L54" t="n">
         <v>228.5</v>
@@ -3155,7 +3177,7 @@
         <v>142</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>227.7</v>
@@ -3212,7 +3234,7 @@
         <v>143</v>
       </c>
       <c r="K56" t="n">
-        <v>-10.76923076923077</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L56" t="n">
         <v>227</v>
@@ -3263,7 +3285,7 @@
         <v>143</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.451612903225806</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L57" t="n">
         <v>226.1</v>
@@ -3314,7 +3336,7 @@
         <v>144</v>
       </c>
       <c r="K58" t="n">
-        <v>-17.85714285714286</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>225.4</v>
@@ -3365,7 +3387,7 @@
         <v>145</v>
       </c>
       <c r="K59" t="n">
-        <v>-16.36363636363636</v>
+        <v>-62.5</v>
       </c>
       <c r="L59" t="n">
         <v>224.9</v>
@@ -3416,7 +3438,7 @@
         <v>151</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.333333333333333</v>
+        <v>20</v>
       </c>
       <c r="L60" t="n">
         <v>224.5</v>
@@ -3467,7 +3489,7 @@
         <v>155</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.75409836065574</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>224.4</v>
@@ -3518,7 +3540,7 @@
         <v>159</v>
       </c>
       <c r="K62" t="n">
-        <v>7.142857142857142</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>224.8</v>
@@ -3569,7 +3591,7 @@
         <v>159</v>
       </c>
       <c r="K63" t="n">
-        <v>3.703703703703703</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L63" t="n">
         <v>225.1</v>
@@ -3620,7 +3642,7 @@
         <v>160</v>
       </c>
       <c r="K64" t="n">
-        <v>16</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L64" t="n">
         <v>225.7</v>
@@ -3671,7 +3693,7 @@
         <v>160</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L65" t="n">
         <v>226.5</v>
@@ -3722,7 +3744,7 @@
         <v>160</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L66" t="n">
         <v>227.2</v>
@@ -3773,7 +3795,7 @@
         <v>160</v>
       </c>
       <c r="K67" t="n">
-        <v>-5</v>
+        <v>37.5</v>
       </c>
       <c r="L67" t="n">
         <v>227.9</v>
@@ -3824,7 +3846,7 @@
         <v>160</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.564102564102564</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L68" t="n">
         <v>228.5</v>
@@ -3875,7 +3897,7 @@
         <v>161</v>
       </c>
       <c r="K69" t="n">
-        <v>8.108108108108109</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>229.3</v>
@@ -3926,7 +3948,7 @@
         <v>161</v>
       </c>
       <c r="K70" t="n">
-        <v>-6.25</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
         <v>229.5</v>
@@ -3977,7 +3999,7 @@
         <v>168</v>
       </c>
       <c r="K71" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>230.8</v>
@@ -4028,7 +4050,7 @@
         <v>187</v>
       </c>
       <c r="K72" t="n">
-        <v>-12</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L72" t="n">
         <v>229.8</v>
@@ -4079,7 +4101,7 @@
         <v>206</v>
       </c>
       <c r="K73" t="n">
-        <v>17.64705882352941</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L73" t="n">
         <v>230.7</v>
@@ -4130,7 +4152,7 @@
         <v>207</v>
       </c>
       <c r="K74" t="n">
-        <v>22.38805970149254</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L74" t="n">
         <v>231.6</v>
@@ -4181,7 +4203,7 @@
         <v>211</v>
       </c>
       <c r="K75" t="n">
-        <v>18.84057971014493</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L75" t="n">
         <v>232.1</v>
@@ -4232,7 +4254,7 @@
         <v>215</v>
       </c>
       <c r="K76" t="n">
-        <v>22.22222222222222</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L76" t="n">
         <v>233</v>
@@ -4283,7 +4305,7 @@
         <v>216</v>
       </c>
       <c r="K77" t="n">
-        <v>23.28767123287671</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="L77" t="n">
         <v>234</v>
@@ -4334,7 +4356,7 @@
         <v>231</v>
       </c>
       <c r="K78" t="n">
-        <v>1.149425287356322</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L78" t="n">
         <v>233.5</v>
@@ -4385,7 +4407,7 @@
         <v>246</v>
       </c>
       <c r="K79" t="n">
-        <v>16.83168316831683</v>
+        <v>10.58823529411765</v>
       </c>
       <c r="L79" t="n">
         <v>234.4</v>
@@ -4436,7 +4458,7 @@
         <v>247</v>
       </c>
       <c r="K80" t="n">
-        <v>10.41666666666667</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="L80" t="n">
         <v>235.2</v>
@@ -4487,7 +4509,7 @@
         <v>248</v>
       </c>
       <c r="K81" t="n">
-        <v>16.12903225806452</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="L81" t="n">
         <v>235.4</v>
@@ -4538,7 +4560,7 @@
         <v>248</v>
       </c>
       <c r="K82" t="n">
-        <v>12.35955056179775</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L82" t="n">
         <v>237.5</v>
@@ -4589,7 +4611,7 @@
         <v>248</v>
       </c>
       <c r="K83" t="n">
-        <v>12.35955056179775</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L83" t="n">
         <v>237.7</v>
@@ -4640,7 +4662,7 @@
         <v>248</v>
       </c>
       <c r="K84" t="n">
-        <v>11.36363636363636</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L84" t="n">
         <v>237.8</v>
@@ -4691,7 +4713,7 @@
         <v>249</v>
       </c>
       <c r="K85" t="n">
-        <v>10.1123595505618</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>238.2</v>
@@ -4742,7 +4764,7 @@
         <v>250</v>
       </c>
       <c r="K86" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>238.3</v>
@@ -4793,7 +4815,7 @@
         <v>251</v>
       </c>
       <c r="K87" t="n">
-        <v>9.890109890109891</v>
+        <v>70</v>
       </c>
       <c r="L87" t="n">
         <v>238.2</v>
@@ -4844,7 +4866,7 @@
         <v>251</v>
       </c>
       <c r="K88" t="n">
-        <v>9.890109890109891</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>239.6</v>
@@ -4895,7 +4917,7 @@
         <v>253</v>
       </c>
       <c r="K89" t="n">
-        <v>6.521739130434782</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>239.3</v>
@@ -4946,7 +4968,7 @@
         <v>256</v>
       </c>
       <c r="K90" t="n">
-        <v>9.473684210526317</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>239.4</v>
@@ -4997,7 +5019,7 @@
         <v>258</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L91" t="n">
         <v>239.2</v>
@@ -5048,7 +5070,7 @@
         <v>259</v>
       </c>
       <c r="K92" t="n">
-        <v>25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L92" t="n">
         <v>238.9</v>
@@ -5099,7 +5121,7 @@
         <v>265</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.86440677966102</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L93" t="n">
         <v>238</v>
@@ -5201,7 +5223,7 @@
         <v>274</v>
       </c>
       <c r="K95" t="n">
-        <v>7.936507936507936</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>238</v>
@@ -5252,7 +5274,7 @@
         <v>276</v>
       </c>
       <c r="K96" t="n">
-        <v>-1.639344262295082</v>
+        <v>-4</v>
       </c>
       <c r="L96" t="n">
         <v>237.8</v>
@@ -5303,7 +5325,7 @@
         <v>278</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L97" t="n">
         <v>237.9</v>
@@ -5354,7 +5376,7 @@
         <v>280</v>
       </c>
       <c r="K98" t="n">
-        <v>26.53061224489796</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L98" t="n">
         <v>237.8</v>
@@ -5456,7 +5478,7 @@
         <v>282</v>
       </c>
       <c r="K100" t="n">
-        <v>2.857142857142857</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L100" t="n">
         <v>238.1</v>
@@ -5507,7 +5529,7 @@
         <v>282</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L101" t="n">
         <v>238.3</v>
@@ -5558,7 +5580,7 @@
         <v>284</v>
       </c>
       <c r="K102" t="n">
-        <v>-5.555555555555555</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L102" t="n">
         <v>238.4</v>
@@ -5609,7 +5631,7 @@
         <v>286</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L103" t="n">
         <v>239.3</v>
@@ -5711,7 +5733,7 @@
         <v>286</v>
       </c>
       <c r="K105" t="n">
-        <v>2.702702702702703</v>
+        <v>20</v>
       </c>
       <c r="L105" t="n">
         <v>239.4</v>
@@ -5762,7 +5784,7 @@
         <v>288</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L106" t="n">
         <v>239.4</v>
@@ -5813,7 +5835,7 @@
         <v>288</v>
       </c>
       <c r="K107" t="n">
-        <v>-2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>239.2</v>
@@ -5864,7 +5886,7 @@
         <v>290</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L108" t="n">
         <v>239</v>
@@ -5915,7 +5937,7 @@
         <v>293</v>
       </c>
       <c r="K109" t="n">
-        <v>-10</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L109" t="n">
         <v>238.3</v>
@@ -5966,7 +5988,7 @@
         <v>294</v>
       </c>
       <c r="K110" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L110" t="n">
         <v>237.7</v>
@@ -6017,7 +6039,7 @@
         <v>294</v>
       </c>
       <c r="K111" t="n">
-        <v>-11.11111111111111</v>
+        <v>-40</v>
       </c>
       <c r="L111" t="n">
         <v>237.1</v>
@@ -6068,7 +6090,7 @@
         <v>297</v>
       </c>
       <c r="K112" t="n">
-        <v>-15.78947368421053</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L112" t="n">
         <v>236.4</v>
@@ -6119,7 +6141,7 @@
         <v>298</v>
       </c>
       <c r="K113" t="n">
-        <v>-3.03030303030303</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L113" t="n">
         <v>235.4</v>
@@ -6170,7 +6192,7 @@
         <v>298</v>
       </c>
       <c r="K114" t="n">
-        <v>-36</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L114" t="n">
         <v>234.4</v>
@@ -6221,7 +6243,7 @@
         <v>298</v>
       </c>
       <c r="K115" t="n">
-        <v>-41.66666666666667</v>
+        <v>-80</v>
       </c>
       <c r="L115" t="n">
         <v>233.4</v>
@@ -6272,7 +6294,7 @@
         <v>299</v>
       </c>
       <c r="K116" t="n">
-        <v>-39.1304347826087</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L116" t="n">
         <v>232.5</v>
@@ -6323,7 +6345,7 @@
         <v>302</v>
       </c>
       <c r="K117" t="n">
-        <v>-58.33333333333334</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L117" t="n">
         <v>231.3</v>
@@ -6374,7 +6396,7 @@
         <v>304</v>
       </c>
       <c r="K118" t="n">
-        <v>-41.66666666666667</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L118" t="n">
         <v>230.5</v>
@@ -6425,7 +6447,7 @@
         <v>304</v>
       </c>
       <c r="K119" t="n">
-        <v>-54.54545454545454</v>
+        <v>-60</v>
       </c>
       <c r="L119" t="n">
         <v>230</v>
@@ -6476,7 +6498,7 @@
         <v>305</v>
       </c>
       <c r="K120" t="n">
-        <v>-56.52173913043478</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L120" t="n">
         <v>229.3</v>
@@ -6527,7 +6549,7 @@
         <v>306</v>
       </c>
       <c r="K121" t="n">
-        <v>-58.33333333333334</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L121" t="n">
         <v>228.5</v>
@@ -6578,7 +6600,7 @@
         <v>309</v>
       </c>
       <c r="K122" t="n">
-        <v>-36</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>228.3</v>
@@ -6629,7 +6651,7 @@
         <v>314</v>
       </c>
       <c r="K123" t="n">
-        <v>-57.14285714285714</v>
+        <v>-37.5</v>
       </c>
       <c r="L123" t="n">
         <v>227.7</v>
@@ -6680,7 +6702,7 @@
         <v>314</v>
       </c>
       <c r="K124" t="n">
-        <v>-57.14285714285714</v>
+        <v>-37.5</v>
       </c>
       <c r="L124" t="n">
         <v>227.1</v>
@@ -6731,7 +6753,7 @@
         <v>314</v>
       </c>
       <c r="K125" t="n">
-        <v>-57.14285714285714</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>226.5</v>
@@ -6782,7 +6804,7 @@
         <v>317</v>
       </c>
       <c r="K126" t="n">
-        <v>-37.93103448275862</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L126" t="n">
         <v>226.3</v>
@@ -6833,7 +6855,7 @@
         <v>317</v>
       </c>
       <c r="K127" t="n">
-        <v>-37.93103448275862</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L127" t="n">
         <v>226.4</v>
@@ -6884,7 +6906,7 @@
         <v>319</v>
       </c>
       <c r="K128" t="n">
-        <v>-37.93103448275862</v>
+        <v>-20</v>
       </c>
       <c r="L128" t="n">
         <v>226.1</v>
@@ -6935,7 +6957,7 @@
         <v>323</v>
       </c>
       <c r="K129" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>225.4</v>
@@ -6986,7 +7008,7 @@
         <v>323</v>
       </c>
       <c r="K130" t="n">
-        <v>-44.82758620689656</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L130" t="n">
         <v>224.8</v>
@@ -7037,7 +7059,7 @@
         <v>327</v>
       </c>
       <c r="K131" t="n">
-        <v>-27.27272727272727</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L131" t="n">
         <v>224.7</v>
@@ -7088,7 +7110,7 @@
         <v>327</v>
       </c>
       <c r="K132" t="n">
-        <v>-20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L132" t="n">
         <v>224.3</v>
@@ -7139,7 +7161,7 @@
         <v>329</v>
       </c>
       <c r="K133" t="n">
-        <v>-22.58064516129032</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L133" t="n">
         <v>224.2</v>
@@ -7190,7 +7212,7 @@
         <v>329</v>
       </c>
       <c r="K134" t="n">
-        <v>-22.58064516129032</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L134" t="n">
         <v>224.1</v>
@@ -7241,7 +7263,7 @@
         <v>332</v>
       </c>
       <c r="K135" t="n">
-        <v>-11.76470588235294</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L135" t="n">
         <v>224.3</v>
@@ -7292,7 +7314,7 @@
         <v>334</v>
       </c>
       <c r="K136" t="n">
-        <v>-2.857142857142857</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L136" t="n">
         <v>224.4</v>
@@ -7343,7 +7365,7 @@
         <v>340</v>
       </c>
       <c r="K137" t="n">
-        <v>21.05263157894737</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L137" t="n">
         <v>225.1</v>
@@ -7394,7 +7416,7 @@
         <v>341</v>
       </c>
       <c r="K138" t="n">
-        <v>13.51351351351351</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L138" t="n">
         <v>225.9</v>
@@ -7445,7 +7467,7 @@
         <v>346</v>
       </c>
       <c r="K139" t="n">
-        <v>23.80952380952381</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L139" t="n">
         <v>227.6</v>
@@ -7496,7 +7518,7 @@
         <v>347</v>
       </c>
       <c r="K140" t="n">
-        <v>23.80952380952381</v>
+        <v>60</v>
       </c>
       <c r="L140" t="n">
         <v>229.2</v>
@@ -7547,7 +7569,7 @@
         <v>347</v>
       </c>
       <c r="K141" t="n">
-        <v>26.82926829268293</v>
+        <v>60</v>
       </c>
       <c r="L141" t="n">
         <v>230.4</v>
@@ -7598,7 +7620,7 @@
         <v>347</v>
       </c>
       <c r="K142" t="n">
-        <v>21.05263157894737</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L142" t="n">
         <v>231.6</v>
@@ -7649,7 +7671,7 @@
         <v>347</v>
       </c>
       <c r="K143" t="n">
-        <v>39.39393939393939</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L143" t="n">
         <v>233</v>
@@ -7700,7 +7722,7 @@
         <v>351</v>
       </c>
       <c r="K144" t="n">
-        <v>24.32432432432433</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L144" t="n">
         <v>234</v>
@@ -7751,7 +7773,7 @@
         <v>353</v>
       </c>
       <c r="K145" t="n">
-        <v>28.2051282051282</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L145" t="n">
         <v>234.9</v>
@@ -7802,7 +7824,7 @@
         <v>356</v>
       </c>
       <c r="K146" t="n">
-        <v>28.2051282051282</v>
+        <v>25</v>
       </c>
       <c r="L146" t="n">
         <v>235.9</v>
@@ -7853,7 +7875,7 @@
         <v>356</v>
       </c>
       <c r="K147" t="n">
-        <v>28.2051282051282</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>236.3</v>
@@ -7904,7 +7926,7 @@
         <v>357</v>
       </c>
       <c r="K148" t="n">
-        <v>36.84210526315789</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L148" t="n">
         <v>236.9</v>
@@ -7955,7 +7977,7 @@
         <v>358</v>
       </c>
       <c r="K149" t="n">
-        <v>54.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L149" t="n">
         <v>237.1</v>
@@ -8006,7 +8028,7 @@
         <v>359</v>
       </c>
       <c r="K150" t="n">
-        <v>50</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L150" t="n">
         <v>237.3</v>
@@ -8057,7 +8079,7 @@
         <v>360</v>
       </c>
       <c r="K151" t="n">
-        <v>45.45454545454545</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L151" t="n">
         <v>237.6</v>
@@ -8108,7 +8130,7 @@
         <v>362</v>
       </c>
       <c r="K152" t="n">
-        <v>48.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>238.1</v>
@@ -8159,7 +8181,7 @@
         <v>362</v>
       </c>
       <c r="K153" t="n">
-        <v>57.57575757575758</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L153" t="n">
         <v>238.6</v>
@@ -8210,7 +8232,7 @@
         <v>362</v>
       </c>
       <c r="K154" t="n">
-        <v>57.57575757575758</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L154" t="n">
         <v>239.5</v>
@@ -8261,7 +8283,7 @@
         <v>362</v>
       </c>
       <c r="K155" t="n">
-        <v>53.33333333333334</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L155" t="n">
         <v>240.2</v>
@@ -8312,7 +8334,7 @@
         <v>363</v>
       </c>
       <c r="K156" t="n">
-        <v>51.72413793103448</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L156" t="n">
         <v>240.7</v>
@@ -8363,7 +8385,7 @@
         <v>364</v>
       </c>
       <c r="K157" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L157" t="n">
         <v>241.1</v>
@@ -8414,7 +8436,7 @@
         <v>365</v>
       </c>
       <c r="K158" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L158" t="n">
         <v>241.3</v>
@@ -8465,7 +8487,7 @@
         <v>365</v>
       </c>
       <c r="K159" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>241.4</v>
@@ -8516,7 +8538,7 @@
         <v>367</v>
       </c>
       <c r="K160" t="n">
-        <v>30</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L160" t="n">
         <v>241.8</v>
@@ -8567,7 +8589,7 @@
         <v>368</v>
       </c>
       <c r="K161" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>242</v>
@@ -8618,7 +8640,7 @@
         <v>368</v>
       </c>
       <c r="K162" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>242</v>
@@ -8669,7 +8691,7 @@
         <v>368</v>
       </c>
       <c r="K163" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>242</v>
@@ -8720,7 +8742,7 @@
         <v>373</v>
       </c>
       <c r="K164" t="n">
-        <v>18.18181818181818</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L164" t="n">
         <v>241.5</v>
@@ -8771,7 +8793,7 @@
         <v>373</v>
       </c>
       <c r="K165" t="n">
-        <v>10</v>
+        <v>-60</v>
       </c>
       <c r="L165" t="n">
         <v>241</v>
@@ -8822,7 +8844,7 @@
         <v>374</v>
       </c>
       <c r="K166" t="n">
-        <v>-11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L166" t="n">
         <v>240.3</v>
@@ -8873,7 +8895,7 @@
         <v>375</v>
       </c>
       <c r="K167" t="n">
-        <v>-5.263157894736842</v>
+        <v>-40</v>
       </c>
       <c r="L167" t="n">
         <v>239.8</v>
@@ -8924,7 +8946,7 @@
         <v>376</v>
       </c>
       <c r="K168" t="n">
-        <v>-15.78947368421053</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L168" t="n">
         <v>239.3</v>
@@ -8975,7 +8997,7 @@
         <v>377</v>
       </c>
       <c r="K169" t="n">
-        <v>-26.31578947368421</v>
+        <v>-80</v>
       </c>
       <c r="L169" t="n">
         <v>238.7</v>
@@ -9026,7 +9048,7 @@
         <v>378</v>
       </c>
       <c r="K170" t="n">
-        <v>-15.78947368421053</v>
+        <v>-60</v>
       </c>
       <c r="L170" t="n">
         <v>238</v>
@@ -9077,7 +9099,7 @@
         <v>378</v>
       </c>
       <c r="K171" t="n">
-        <v>-22.22222222222222</v>
+        <v>-60</v>
       </c>
       <c r="L171" t="n">
         <v>237.4</v>
@@ -9128,7 +9150,7 @@
         <v>378</v>
       </c>
       <c r="K172" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L172" t="n">
         <v>236.8</v>
@@ -9179,7 +9201,7 @@
         <v>380</v>
       </c>
       <c r="K173" t="n">
-        <v>-44.44444444444444</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L173" t="n">
         <v>236</v>
@@ -9230,7 +9252,7 @@
         <v>381</v>
       </c>
       <c r="K174" t="n">
-        <v>-47.36842105263158</v>
+        <v>-50</v>
       </c>
       <c r="L174" t="n">
         <v>235.6</v>
@@ -9281,7 +9303,7 @@
         <v>385</v>
       </c>
       <c r="K175" t="n">
-        <v>-21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L175" t="n">
         <v>235.6</v>
@@ -9332,7 +9354,7 @@
         <v>388</v>
       </c>
       <c r="K176" t="n">
-        <v>-36</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L176" t="n">
         <v>235.4</v>
@@ -9383,7 +9405,7 @@
         <v>388</v>
       </c>
       <c r="K177" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L177" t="n">
         <v>235.1</v>
@@ -9434,7 +9456,7 @@
         <v>388</v>
       </c>
       <c r="K178" t="n">
-        <v>-30.43478260869566</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L178" t="n">
         <v>234.9</v>
@@ -9485,7 +9507,7 @@
         <v>388</v>
       </c>
       <c r="K179" t="n">
-        <v>-30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L179" t="n">
         <v>234.8</v>
@@ -9536,7 +9558,7 @@
         <v>389</v>
       </c>
       <c r="K180" t="n">
-        <v>-45.45454545454545</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L180" t="n">
         <v>234.5</v>
@@ -9587,7 +9609,7 @@
         <v>389</v>
       </c>
       <c r="K181" t="n">
-        <v>-42.85714285714285</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L181" t="n">
         <v>234.2</v>
@@ -9638,7 +9660,7 @@
         <v>394</v>
       </c>
       <c r="K182" t="n">
-        <v>-15.38461538461539</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L182" t="n">
         <v>234.4</v>
@@ -9689,7 +9711,7 @@
         <v>395</v>
       </c>
       <c r="K183" t="n">
-        <v>-18.51851851851852</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L183" t="n">
         <v>234.7</v>
@@ -9740,7 +9762,7 @@
         <v>399</v>
       </c>
       <c r="K184" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L184" t="n">
         <v>234.7</v>
@@ -9791,7 +9813,7 @@
         <v>399</v>
       </c>
       <c r="K185" t="n">
-        <v>-15.38461538461539</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L185" t="n">
         <v>234.3</v>
@@ -9842,7 +9864,7 @@
         <v>404</v>
       </c>
       <c r="K186" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L186" t="n">
         <v>234.7</v>
@@ -9893,7 +9915,7 @@
         <v>406</v>
       </c>
       <c r="K187" t="n">
-        <v>9.67741935483871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>235.3</v>
@@ -9944,7 +9966,7 @@
         <v>408</v>
       </c>
       <c r="K188" t="n">
-        <v>18.75</v>
+        <v>40</v>
       </c>
       <c r="L188" t="n">
         <v>236.1</v>
@@ -9995,7 +10017,7 @@
         <v>409</v>
       </c>
       <c r="K189" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L189" t="n">
         <v>237</v>
@@ -10046,7 +10068,7 @@
         <v>412</v>
       </c>
       <c r="K190" t="n">
-        <v>11.76470588235294</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L190" t="n">
         <v>237.7</v>
@@ -10097,7 +10119,7 @@
         <v>415</v>
       </c>
       <c r="K191" t="n">
-        <v>18.91891891891892</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L191" t="n">
         <v>238.7</v>
@@ -10148,7 +10170,7 @@
         <v>417</v>
       </c>
       <c r="K192" t="n">
-        <v>12.82051282051282</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L192" t="n">
         <v>239</v>
@@ -10199,7 +10221,7 @@
         <v>417</v>
       </c>
       <c r="K193" t="n">
-        <v>18.91891891891892</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L193" t="n">
         <v>239.4</v>
@@ -10250,7 +10272,7 @@
         <v>417</v>
       </c>
       <c r="K194" t="n">
-        <v>22.22222222222222</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L194" t="n">
         <v>240.2</v>
@@ -10301,7 +10323,7 @@
         <v>417</v>
       </c>
       <c r="K195" t="n">
-        <v>12.5</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L195" t="n">
         <v>241</v>
@@ -10352,7 +10374,7 @@
         <v>417</v>
       </c>
       <c r="K196" t="n">
-        <v>24.13793103448276</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L196" t="n">
         <v>241.3</v>
@@ -10403,7 +10425,7 @@
         <v>419</v>
       </c>
       <c r="K197" t="n">
-        <v>29.03225806451613</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L197" t="n">
         <v>241.6</v>
@@ -10454,7 +10476,7 @@
         <v>419</v>
       </c>
       <c r="K198" t="n">
-        <v>29.03225806451613</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>241.7</v>
@@ -10505,7 +10527,7 @@
         <v>419</v>
       </c>
       <c r="K199" t="n">
-        <v>29.03225806451613</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L199" t="n">
         <v>241.7</v>
@@ -10556,7 +10578,7 @@
         <v>422</v>
       </c>
       <c r="K200" t="n">
-        <v>39.39393939393939</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L200" t="n">
         <v>242.3</v>
@@ -10607,7 +10629,7 @@
         <v>423</v>
       </c>
       <c r="K201" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L201" t="n">
         <v>242.7</v>
@@ -10658,7 +10680,7 @@
         <v>428</v>
       </c>
       <c r="K202" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>243.8</v>
@@ -10709,7 +10731,7 @@
         <v>431</v>
       </c>
       <c r="K203" t="n">
-        <v>33.33333333333333</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L203" t="n">
         <v>244.6</v>
@@ -10760,7 +10782,7 @@
         <v>439</v>
       </c>
       <c r="K204" t="n">
-        <v>60</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L204" t="n">
         <v>246.2</v>
@@ -10811,7 +10833,7 @@
         <v>440</v>
       </c>
       <c r="K205" t="n">
-        <v>56.09756097560976</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L205" t="n">
         <v>247.7</v>
@@ -10862,7 +10884,7 @@
         <v>441</v>
       </c>
       <c r="K206" t="n">
-        <v>51.35135135135135</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L206" t="n">
         <v>249.3</v>
@@ -10913,7 +10935,7 @@
         <v>441</v>
       </c>
       <c r="K207" t="n">
-        <v>48.57142857142857</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L207" t="n">
         <v>250.7</v>
@@ -10964,7 +10986,7 @@
         <v>449</v>
       </c>
       <c r="K208" t="n">
-        <v>56.09756097560976</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>252.9</v>
@@ -11015,7 +11037,7 @@
         <v>452</v>
       </c>
       <c r="K209" t="n">
-        <v>44.18604651162791</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L209" t="n">
         <v>254.8</v>
@@ -11066,7 +11088,7 @@
         <v>455</v>
       </c>
       <c r="K210" t="n">
-        <v>58.13953488372093</v>
+        <v>56.25</v>
       </c>
       <c r="L210" t="n">
         <v>256.7</v>
@@ -11117,7 +11139,7 @@
         <v>459</v>
       </c>
       <c r="K211" t="n">
-        <v>40.90909090909091</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L211" t="n">
         <v>258.1</v>
@@ -11168,7 +11190,7 @@
         <v>460</v>
       </c>
       <c r="K212" t="n">
-        <v>48.83720930232558</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L212" t="n">
         <v>259.1</v>
@@ -11219,7 +11241,7 @@
         <v>462</v>
       </c>
       <c r="K213" t="n">
-        <v>51.11111111111111</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L213" t="n">
         <v>260.6</v>
@@ -11270,7 +11292,7 @@
         <v>463</v>
       </c>
       <c r="K214" t="n">
-        <v>52.17391304347826</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L214" t="n">
         <v>261.4</v>
@@ -11321,7 +11343,7 @@
         <v>464</v>
       </c>
       <c r="K215" t="n">
-        <v>53.19148936170212</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L215" t="n">
         <v>262.4</v>
@@ -11372,7 +11394,7 @@
         <v>470</v>
       </c>
       <c r="K216" t="n">
-        <v>35.84905660377358</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L216" t="n">
         <v>262.7</v>
@@ -11423,7 +11445,7 @@
         <v>480</v>
       </c>
       <c r="K217" t="n">
-        <v>44.26229508196721</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L217" t="n">
         <v>264</v>
@@ -11474,7 +11496,7 @@
         <v>483</v>
       </c>
       <c r="K218" t="n">
-        <v>46.875</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L218" t="n">
         <v>264.8</v>
@@ -11525,7 +11547,7 @@
         <v>484</v>
       </c>
       <c r="K219" t="n">
-        <v>47.69230769230769</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L219" t="n">
         <v>266</v>
@@ -11576,7 +11598,7 @@
         <v>486</v>
       </c>
       <c r="K220" t="n">
-        <v>40.625</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L220" t="n">
         <v>266.7</v>
@@ -11627,7 +11649,7 @@
         <v>489</v>
       </c>
       <c r="K221" t="n">
-        <v>42.42424242424242</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L221" t="n">
         <v>268.1</v>
@@ -11678,7 +11700,7 @@
         <v>492</v>
       </c>
       <c r="K222" t="n">
-        <v>40.625</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L222" t="n">
         <v>269.7</v>
@@ -11729,7 +11751,7 @@
         <v>492</v>
       </c>
       <c r="K223" t="n">
-        <v>47.54098360655738</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L223" t="n">
         <v>271.1</v>
@@ -11780,7 +11802,7 @@
         <v>494</v>
       </c>
       <c r="K224" t="n">
-        <v>34.54545454545455</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>272.2</v>
@@ -11831,7 +11853,7 @@
         <v>499</v>
       </c>
       <c r="K225" t="n">
-        <v>42.3728813559322</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L225" t="n">
         <v>273.7</v>
@@ -11882,7 +11904,7 @@
         <v>503</v>
       </c>
       <c r="K226" t="n">
-        <v>45.16129032258064</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L226" t="n">
         <v>276.2</v>
@@ -11933,7 +11955,7 @@
         <v>504</v>
       </c>
       <c r="K227" t="n">
-        <v>42.85714285714285</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L227" t="n">
         <v>277.6</v>
@@ -11984,7 +12006,7 @@
         <v>508</v>
       </c>
       <c r="K228" t="n">
-        <v>25.42372881355932</v>
+        <v>25</v>
       </c>
       <c r="L228" t="n">
         <v>278.3</v>
@@ -12035,7 +12057,7 @@
         <v>511</v>
       </c>
       <c r="K229" t="n">
-        <v>25.42372881355932</v>
+        <v>20</v>
       </c>
       <c r="L229" t="n">
         <v>278.6</v>
@@ -12086,7 +12108,7 @@
         <v>511</v>
       </c>
       <c r="K230" t="n">
-        <v>21.42857142857143</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L230" t="n">
         <v>279.1</v>
@@ -12137,7 +12159,7 @@
         <v>511</v>
       </c>
       <c r="K231" t="n">
-        <v>30.76923076923077</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L231" t="n">
         <v>279.3</v>
@@ -12188,7 +12210,7 @@
         <v>516</v>
       </c>
       <c r="K232" t="n">
-        <v>17.85714285714286</v>
+        <v>-25</v>
       </c>
       <c r="L232" t="n">
         <v>278.7</v>
@@ -12239,7 +12261,7 @@
         <v>520</v>
       </c>
       <c r="K233" t="n">
-        <v>20.68965517241379</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>278.5</v>
@@ -12290,7 +12312,7 @@
         <v>521</v>
       </c>
       <c r="K234" t="n">
-        <v>20.68965517241379</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L234" t="n">
         <v>278.6</v>
@@ -12341,7 +12363,7 @@
         <v>526</v>
       </c>
       <c r="K235" t="n">
-        <v>9.67741935483871</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L235" t="n">
         <v>277.7</v>
@@ -12392,7 +12414,7 @@
         <v>526</v>
       </c>
       <c r="K236" t="n">
-        <v>21.42857142857143</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L236" t="n">
         <v>276.4</v>
@@ -12443,7 +12465,7 @@
         <v>527</v>
       </c>
       <c r="K237" t="n">
-        <v>2.127659574468085</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L237" t="n">
         <v>275.1</v>
@@ -12494,7 +12516,7 @@
         <v>530</v>
       </c>
       <c r="K238" t="n">
-        <v>2.127659574468085</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L238" t="n">
         <v>274.5</v>
@@ -12545,7 +12567,7 @@
         <v>532</v>
       </c>
       <c r="K239" t="n">
-        <v>-4.166666666666666</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L239" t="n">
         <v>274</v>
@@ -12596,7 +12618,7 @@
         <v>539</v>
       </c>
       <c r="K240" t="n">
-        <v>-13.20754716981132</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L240" t="n">
         <v>272.8</v>
@@ -12647,7 +12669,7 @@
         <v>542</v>
       </c>
       <c r="K241" t="n">
-        <v>-24.52830188679245</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L241" t="n">
         <v>271.3</v>
@@ -12698,7 +12720,7 @@
         <v>542</v>
       </c>
       <c r="K242" t="n">
-        <v>-32</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L242" t="n">
         <v>270.3</v>
@@ -12749,7 +12771,7 @@
         <v>543</v>
       </c>
       <c r="K243" t="n">
-        <v>-29.41176470588236</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L243" t="n">
         <v>269</v>
@@ -12800,7 +12822,7 @@
         <v>548</v>
       </c>
       <c r="K244" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L244" t="n">
         <v>267.1</v>
@@ -12851,7 +12873,7 @@
         <v>551</v>
       </c>
       <c r="K245" t="n">
-        <v>-38.46153846153847</v>
+        <v>-44</v>
       </c>
       <c r="L245" t="n">
         <v>266</v>
@@ -12902,7 +12924,7 @@
         <v>553</v>
       </c>
       <c r="K246" t="n">
-        <v>-44</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L246" t="n">
         <v>265.1</v>
@@ -12953,7 +12975,7 @@
         <v>554</v>
       </c>
       <c r="K247" t="n">
-        <v>-44</v>
+        <v>-50</v>
       </c>
       <c r="L247" t="n">
         <v>264.2</v>
@@ -13004,7 +13026,7 @@
         <v>555</v>
       </c>
       <c r="K248" t="n">
-        <v>-36.17021276595745</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L248" t="n">
         <v>263.1</v>
@@ -13055,7 +13077,7 @@
         <v>560</v>
       </c>
       <c r="K249" t="n">
-        <v>-18.36734693877551</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>262.7</v>
@@ -13106,7 +13128,7 @@
         <v>562</v>
       </c>
       <c r="K250" t="n">
-        <v>-21.56862745098039</v>
+        <v>20</v>
       </c>
       <c r="L250" t="n">
         <v>262.8</v>
@@ -13157,7 +13179,7 @@
         <v>565</v>
       </c>
       <c r="K251" t="n">
-        <v>-25.92592592592592</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L251" t="n">
         <v>262.9</v>
@@ -13208,7 +13230,7 @@
         <v>569</v>
       </c>
       <c r="K252" t="n">
-        <v>-9.433962264150944</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L252" t="n">
         <v>263.4</v>
@@ -13259,7 +13281,7 @@
         <v>573</v>
       </c>
       <c r="K253" t="n">
-        <v>-24.52830188679245</v>
+        <v>20</v>
       </c>
       <c r="L253" t="n">
         <v>263.4</v>
@@ -13310,7 +13332,7 @@
         <v>575</v>
       </c>
       <c r="K254" t="n">
-        <v>-22.22222222222222</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L254" t="n">
         <v>264.1</v>
@@ -13361,7 +13383,7 @@
         <v>575</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L255" t="n">
         <v>264.5</v>
@@ -13412,7 +13434,7 @@
         <v>575</v>
       </c>
       <c r="K256" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L256" t="n">
         <v>264.7</v>
@@ -13463,7 +13485,7 @@
         <v>579</v>
       </c>
       <c r="K257" t="n">
-        <v>-3.846153846153846</v>
+        <v>25</v>
       </c>
       <c r="L257" t="n">
         <v>265.4</v>
@@ -13514,7 +13536,7 @@
         <v>579</v>
       </c>
       <c r="K258" t="n">
-        <v>-10.20408163265306</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L258" t="n">
         <v>266</v>
@@ -13565,7 +13587,7 @@
         <v>584</v>
       </c>
       <c r="K259" t="n">
-        <v>3.846153846153846</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L259" t="n">
         <v>266.6</v>
@@ -13616,7 +13638,7 @@
         <v>589</v>
       </c>
       <c r="K260" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L260" t="n">
         <v>266.9</v>
@@ -13667,7 +13689,7 @@
         <v>589</v>
       </c>
       <c r="K261" t="n">
-        <v>14.8936170212766</v>
+        <v>10</v>
       </c>
       <c r="L261" t="n">
         <v>267.5</v>
@@ -13718,7 +13740,7 @@
         <v>591</v>
       </c>
       <c r="K262" t="n">
-        <v>10.20408163265306</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L262" t="n">
         <v>267.5</v>
@@ -13769,7 +13791,7 @@
         <v>597</v>
       </c>
       <c r="K263" t="n">
-        <v>18.51851851851852</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L263" t="n">
         <v>268.5</v>
@@ -13820,7 +13842,7 @@
         <v>600</v>
       </c>
       <c r="K264" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L264" t="n">
         <v>269</v>
@@ -13871,7 +13893,7 @@
         <v>600</v>
       </c>
       <c r="K265" t="n">
-        <v>18.36734693877551</v>
+        <v>20</v>
       </c>
       <c r="L265" t="n">
         <v>269.5</v>
@@ -13973,7 +13995,7 @@
         <v>610</v>
       </c>
       <c r="K267" t="n">
-        <v>14.28571428571428</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L267" t="n">
         <v>270.6</v>
@@ -14024,7 +14046,7 @@
         <v>612</v>
       </c>
       <c r="K268" t="n">
-        <v>15.78947368421053</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L268" t="n">
         <v>270.9</v>
@@ -14075,7 +14097,7 @@
         <v>617</v>
       </c>
       <c r="K269" t="n">
-        <v>-1.754385964912281</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L269" t="n">
         <v>270.2</v>
@@ -14126,7 +14148,7 @@
         <v>617</v>
       </c>
       <c r="K270" t="n">
-        <v>1.818181818181818</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L270" t="n">
         <v>270</v>
@@ -14177,7 +14199,7 @@
         <v>621</v>
       </c>
       <c r="K271" t="n">
-        <v>14.28571428571428</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>270.2</v>
@@ -14228,7 +14250,7 @@
         <v>623</v>
       </c>
       <c r="K272" t="n">
-        <v>3.703703703703703</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L272" t="n">
         <v>270.4</v>
@@ -14279,7 +14301,7 @@
         <v>623</v>
       </c>
       <c r="K273" t="n">
-        <v>12</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L273" t="n">
         <v>270</v>
@@ -14330,7 +14352,7 @@
         <v>624</v>
       </c>
       <c r="K274" t="n">
-        <v>6.122448979591836</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L274" t="n">
         <v>269.8</v>
@@ -14381,7 +14403,7 @@
         <v>624</v>
       </c>
       <c r="K275" t="n">
-        <v>6.122448979591836</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L275" t="n">
         <v>269.6</v>
@@ -14432,7 +14454,7 @@
         <v>624</v>
       </c>
       <c r="K276" t="n">
-        <v>6.122448979591836</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L276" t="n">
         <v>268.9</v>
@@ -14483,7 +14505,7 @@
         <v>628</v>
       </c>
       <c r="K277" t="n">
-        <v>-10.20408163265306</v>
+        <v>-50</v>
       </c>
       <c r="L277" t="n">
         <v>268.3</v>
@@ -14534,7 +14556,7 @@
         <v>640</v>
       </c>
       <c r="K278" t="n">
-        <v>-27.86885245901639</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L278" t="n">
         <v>266.3</v>
@@ -14585,7 +14607,7 @@
         <v>653</v>
       </c>
       <c r="K279" t="n">
-        <v>-13.04347826086956</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L279" t="n">
         <v>266.1</v>
@@ -14636,7 +14658,7 @@
         <v>655</v>
       </c>
       <c r="K280" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L280" t="n">
         <v>265.7</v>
@@ -14687,7 +14709,7 @@
         <v>655</v>
       </c>
       <c r="K281" t="n">
-        <v>-9.090909090909092</v>
+        <v>-18.75</v>
       </c>
       <c r="L281" t="n">
         <v>264.9</v>
@@ -14738,7 +14760,7 @@
         <v>655</v>
       </c>
       <c r="K282" t="n">
-        <v>-6.25</v>
+        <v>-18.75</v>
       </c>
       <c r="L282" t="n">
         <v>264.3</v>
@@ -14789,7 +14811,7 @@
         <v>657</v>
       </c>
       <c r="K283" t="n">
-        <v>-20</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L283" t="n">
         <v>263.5</v>
@@ -14840,7 +14862,7 @@
         <v>660</v>
       </c>
       <c r="K284" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L284" t="n">
         <v>263.1</v>
@@ -14891,7 +14913,7 @@
         <v>666</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L285" t="n">
         <v>263.3</v>
@@ -14942,7 +14964,7 @@
         <v>678</v>
       </c>
       <c r="K286" t="n">
-        <v>-23.28767123287671</v>
+        <v>-12</v>
       </c>
       <c r="L286" t="n">
         <v>262.3</v>
@@ -14993,7 +15015,7 @@
         <v>687</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.896103896103896</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L287" t="n">
         <v>262.6</v>
@@ -15044,7 +15066,7 @@
         <v>689</v>
       </c>
       <c r="K288" t="n">
-        <v>-3.896103896103896</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L288" t="n">
         <v>264.3</v>
@@ -15095,7 +15117,7 @@
         <v>691</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L289" t="n">
         <v>264.5</v>
@@ -15146,7 +15168,7 @@
         <v>691</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L290" t="n">
         <v>264.9</v>
@@ -15197,7 +15219,7 @@
         <v>693</v>
       </c>
       <c r="K291" t="n">
-        <v>-2.777777777777778</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L291" t="n">
         <v>265.5</v>
@@ -15248,7 +15270,7 @@
         <v>696</v>
       </c>
       <c r="K292" t="n">
-        <v>-4.10958904109589</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L292" t="n">
         <v>265.8</v>
@@ -15299,7 +15321,7 @@
         <v>696</v>
       </c>
       <c r="K293" t="n">
-        <v>-4.10958904109589</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L293" t="n">
         <v>266.3</v>
@@ -15350,7 +15372,7 @@
         <v>700</v>
       </c>
       <c r="K294" t="n">
-        <v>2.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>266.9</v>
@@ -15401,7 +15423,7 @@
         <v>704</v>
       </c>
       <c r="K295" t="n">
-        <v>7.5</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L295" t="n">
         <v>267.3</v>
@@ -15452,7 +15474,7 @@
         <v>705</v>
       </c>
       <c r="K296" t="n">
-        <v>8.641975308641975</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L296" t="n">
         <v>269</v>
@@ -15503,7 +15525,7 @@
         <v>706</v>
       </c>
       <c r="K297" t="n">
-        <v>12.82051282051282</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L297" t="n">
         <v>269.7</v>
@@ -15554,7 +15576,7 @@
         <v>708</v>
       </c>
       <c r="K298" t="n">
-        <v>35.29411764705883</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L298" t="n">
         <v>270.4</v>
@@ -15605,7 +15627,7 @@
         <v>709</v>
       </c>
       <c r="K299" t="n">
-        <v>21.42857142857143</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L299" t="n">
         <v>271.4</v>
@@ -15656,7 +15678,7 @@
         <v>710</v>
       </c>
       <c r="K300" t="n">
-        <v>27.27272727272727</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L300" t="n">
         <v>272.5</v>
@@ -15707,7 +15729,7 @@
         <v>711</v>
       </c>
       <c r="K301" t="n">
-        <v>28.57142857142857</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L301" t="n">
         <v>273.5</v>
@@ -15758,7 +15780,7 @@
         <v>713</v>
       </c>
       <c r="K302" t="n">
-        <v>31.03448275862069</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L302" t="n">
         <v>275</v>
@@ -15809,7 +15831,7 @@
         <v>714</v>
       </c>
       <c r="K303" t="n">
-        <v>33.33333333333333</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L303" t="n">
         <v>276.4</v>
@@ -15860,7 +15882,7 @@
         <v>718</v>
       </c>
       <c r="K304" t="n">
-        <v>20.68965517241379</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L304" t="n">
         <v>277</v>
@@ -15911,7 +15933,7 @@
         <v>718</v>
       </c>
       <c r="K305" t="n">
-        <v>11.53846153846154</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L305" t="n">
         <v>277.2</v>
@@ -15962,7 +15984,7 @@
         <v>718</v>
       </c>
       <c r="K306" t="n">
-        <v>45</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L306" t="n">
         <v>277.3</v>
@@ -16013,7 +16035,7 @@
         <v>721</v>
       </c>
       <c r="K307" t="n">
-        <v>35.29411764705883</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L307" t="n">
         <v>277.8</v>
@@ -16064,7 +16086,7 @@
         <v>727</v>
       </c>
       <c r="K308" t="n">
-        <v>10.52631578947368</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L308" t="n">
         <v>277.5</v>
@@ -16115,7 +16137,7 @@
         <v>727</v>
       </c>
       <c r="K309" t="n">
-        <v>16.66666666666666</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L309" t="n">
         <v>277.1</v>
@@ -16166,7 +16188,7 @@
         <v>731</v>
       </c>
       <c r="K310" t="n">
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="L310" t="n">
         <v>277</v>
@@ -16217,7 +16239,7 @@
         <v>733</v>
       </c>
       <c r="K311" t="n">
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="L311" t="n">
         <v>277</v>
@@ -16268,7 +16290,7 @@
         <v>745</v>
       </c>
       <c r="K312" t="n">
-        <v>2.040816326530612</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L312" t="n">
         <v>275.6</v>
@@ -16319,7 +16341,7 @@
         <v>749</v>
       </c>
       <c r="K313" t="n">
-        <v>9.433962264150944</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L313" t="n">
         <v>274.7</v>
@@ -16370,7 +16392,7 @@
         <v>749</v>
       </c>
       <c r="K314" t="n">
-        <v>2.040816326530612</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L314" t="n">
         <v>274.2</v>
@@ -16421,7 +16443,7 @@
         <v>749</v>
       </c>
       <c r="K315" t="n">
-        <v>-6.666666666666667</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L315" t="n">
         <v>273.7</v>
@@ -16472,7 +16494,7 @@
         <v>750</v>
       </c>
       <c r="K316" t="n">
-        <v>-11.11111111111111</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L316" t="n">
         <v>273.1</v>
@@ -16523,7 +16545,7 @@
         <v>750</v>
       </c>
       <c r="K317" t="n">
-        <v>-9.090909090909092</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L317" t="n">
         <v>272.2</v>
@@ -16574,7 +16596,7 @@
         <v>750</v>
       </c>
       <c r="K318" t="n">
-        <v>-14.28571428571428</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L318" t="n">
         <v>271.9</v>
@@ -16625,7 +16647,7 @@
         <v>757</v>
       </c>
       <c r="K319" t="n">
-        <v>-29.16666666666667</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L319" t="n">
         <v>270.9</v>
@@ -16676,7 +16698,7 @@
         <v>763</v>
       </c>
       <c r="K320" t="n">
-        <v>-16.9811320754717</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>270.1</v>
@@ -16727,7 +16749,7 @@
         <v>764</v>
       </c>
       <c r="K321" t="n">
-        <v>-16.9811320754717</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L321" t="n">
         <v>269.2</v>
@@ -16778,7 +16800,7 @@
         <v>770</v>
       </c>
       <c r="K322" t="n">
-        <v>-29.82456140350877</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>268.9</v>
@@ -16829,7 +16851,7 @@
         <v>773</v>
       </c>
       <c r="K323" t="n">
-        <v>-22.03389830508474</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L323" t="n">
         <v>268.5</v>
@@ -16880,7 +16902,7 @@
         <v>774</v>
       </c>
       <c r="K324" t="n">
-        <v>-17.85714285714286</v>
+        <v>-20</v>
       </c>
       <c r="L324" t="n">
         <v>268</v>
@@ -16931,7 +16953,7 @@
         <v>774</v>
       </c>
       <c r="K325" t="n">
-        <v>-17.85714285714286</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L325" t="n">
         <v>267.5</v>
@@ -16982,7 +17004,7 @@
         <v>774</v>
       </c>
       <c r="K326" t="n">
-        <v>-17.85714285714286</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L326" t="n">
         <v>267.1</v>
@@ -17033,7 +17055,7 @@
         <v>774</v>
       </c>
       <c r="K327" t="n">
-        <v>-24.52830188679245</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L327" t="n">
         <v>266.7</v>
@@ -17084,7 +17106,7 @@
         <v>774</v>
       </c>
       <c r="K328" t="n">
-        <v>-14.8936170212766</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L328" t="n">
         <v>266.3</v>
@@ -17135,7 +17157,7 @@
         <v>774</v>
       </c>
       <c r="K329" t="n">
-        <v>-14.8936170212766</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L329" t="n">
         <v>266.6</v>
@@ -17186,7 +17208,7 @@
         <v>779</v>
       </c>
       <c r="K330" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L330" t="n">
         <v>265.8</v>
@@ -17237,7 +17259,7 @@
         <v>779</v>
       </c>
       <c r="K331" t="n">
-        <v>-39.1304347826087</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>264.9</v>
@@ -17288,7 +17310,7 @@
         <v>781</v>
       </c>
       <c r="K332" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L332" t="n">
         <v>264.8</v>
@@ -17339,7 +17361,7 @@
         <v>783</v>
       </c>
       <c r="K333" t="n">
-        <v>-29.41176470588236</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L333" t="n">
         <v>264.2</v>
@@ -17390,7 +17412,7 @@
         <v>783</v>
       </c>
       <c r="K334" t="n">
-        <v>-29.41176470588236</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L334" t="n">
         <v>263.7</v>
@@ -17441,7 +17463,7 @@
         <v>785</v>
       </c>
       <c r="K335" t="n">
-        <v>-22.22222222222222</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L335" t="n">
         <v>263.4</v>
@@ -17492,7 +17514,7 @@
         <v>787</v>
       </c>
       <c r="K336" t="n">
-        <v>-24.32432432432433</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L336" t="n">
         <v>262.9</v>
@@ -17543,7 +17565,7 @@
         <v>787</v>
       </c>
       <c r="K337" t="n">
-        <v>-24.32432432432433</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L337" t="n">
         <v>262.4</v>
@@ -17594,7 +17616,7 @@
         <v>787</v>
       </c>
       <c r="K338" t="n">
-        <v>-24.32432432432433</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L338" t="n">
         <v>261.9</v>
@@ -17645,7 +17667,7 @@
         <v>788</v>
       </c>
       <c r="K339" t="n">
-        <v>-3.225806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L339" t="n">
         <v>261.5</v>
@@ -17696,7 +17718,7 @@
         <v>789</v>
       </c>
       <c r="K340" t="n">
-        <v>-30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>261.5</v>
@@ -17747,7 +17769,7 @@
         <v>789</v>
       </c>
       <c r="K341" t="n">
-        <v>-36</v>
+        <v>-25</v>
       </c>
       <c r="L341" t="n">
         <v>261.5</v>
@@ -17798,7 +17820,7 @@
         <v>791</v>
       </c>
       <c r="K342" t="n">
-        <v>-4.761904761904762</v>
+        <v>25</v>
       </c>
       <c r="L342" t="n">
         <v>261.5</v>
@@ -17849,7 +17871,7 @@
         <v>792</v>
       </c>
       <c r="K343" t="n">
-        <v>-26.31578947368421</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L343" t="n">
         <v>261.6</v>
@@ -17900,7 +17922,7 @@
         <v>795</v>
       </c>
       <c r="K344" t="n">
-        <v>-4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L344" t="n">
         <v>262</v>
@@ -17951,7 +17973,7 @@
         <v>797</v>
       </c>
       <c r="K345" t="n">
-        <v>-13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L345" t="n">
         <v>262</v>
@@ -18002,7 +18024,7 @@
         <v>799</v>
       </c>
       <c r="K346" t="n">
-        <v>-4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>262.4</v>
@@ -18053,7 +18075,7 @@
         <v>800</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L347" t="n">
         <v>262.9</v>
@@ -18104,7 +18126,7 @@
         <v>803</v>
       </c>
       <c r="K348" t="n">
-        <v>10.3448275862069</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L348" t="n">
         <v>263.7</v>
@@ -18155,7 +18177,7 @@
         <v>803</v>
       </c>
       <c r="K349" t="n">
-        <v>10.3448275862069</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L349" t="n">
         <v>264.4</v>
@@ -18206,7 +18228,7 @@
         <v>805</v>
       </c>
       <c r="K350" t="n">
-        <v>38.46153846153847</v>
+        <v>62.5</v>
       </c>
       <c r="L350" t="n">
         <v>265.4</v>
@@ -18257,7 +18279,7 @@
         <v>806</v>
       </c>
       <c r="K351" t="n">
-        <v>33.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L351" t="n">
         <v>266.3</v>
@@ -18308,7 +18330,7 @@
         <v>809</v>
       </c>
       <c r="K352" t="n">
-        <v>14.28571428571428</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L352" t="n">
         <v>266.7</v>
@@ -18359,7 +18381,7 @@
         <v>815</v>
       </c>
       <c r="K353" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="L353" t="n">
         <v>267.8</v>
@@ -18410,7 +18432,7 @@
         <v>815</v>
       </c>
       <c r="K354" t="n">
-        <v>37.5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L354" t="n">
         <v>268.6</v>
@@ -18461,7 +18483,7 @@
         <v>816</v>
       </c>
       <c r="K355" t="n">
-        <v>29.03225806451613</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L355" t="n">
         <v>269.5</v>
@@ -18512,7 +18534,7 @@
         <v>822</v>
       </c>
       <c r="K356" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>269.6</v>
@@ -18563,7 +18585,7 @@
         <v>823</v>
       </c>
       <c r="K357" t="n">
-        <v>16.66666666666666</v>
+        <v>-10</v>
       </c>
       <c r="L357" t="n">
         <v>269.7</v>
@@ -18614,7 +18636,7 @@
         <v>829</v>
       </c>
       <c r="K358" t="n">
-        <v>28.57142857142857</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L358" t="n">
         <v>270.1</v>
@@ -18665,7 +18687,7 @@
         <v>831</v>
       </c>
       <c r="K359" t="n">
-        <v>30.23255813953488</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L359" t="n">
         <v>270.7</v>
@@ -18716,7 +18738,7 @@
         <v>833</v>
       </c>
       <c r="K360" t="n">
-        <v>36.36363636363637</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L360" t="n">
         <v>271.3</v>
@@ -18767,7 +18789,7 @@
         <v>834</v>
       </c>
       <c r="K361" t="n">
-        <v>37.77777777777778</v>
+        <v>44</v>
       </c>
       <c r="L361" t="n">
         <v>272.1</v>
@@ -18818,7 +18840,7 @@
         <v>834</v>
       </c>
       <c r="K362" t="n">
-        <v>34.88372093023256</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L362" t="n">
         <v>273.2</v>
@@ -18869,7 +18891,7 @@
         <v>835</v>
       </c>
       <c r="K363" t="n">
-        <v>39.53488372093023</v>
+        <v>30</v>
       </c>
       <c r="L363" t="n">
         <v>273.8</v>
@@ -18920,7 +18942,7 @@
         <v>837</v>
       </c>
       <c r="K364" t="n">
-        <v>28.57142857142857</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L364" t="n">
         <v>274.2</v>
@@ -18971,7 +18993,7 @@
         <v>839</v>
       </c>
       <c r="K365" t="n">
-        <v>38.09523809523809</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L365" t="n">
         <v>274.9</v>
@@ -19022,7 +19044,7 @@
         <v>840</v>
       </c>
       <c r="K366" t="n">
-        <v>31.70731707317073</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L366" t="n">
         <v>276.1</v>
@@ -19073,7 +19095,7 @@
         <v>841</v>
       </c>
       <c r="K367" t="n">
-        <v>26.82926829268293</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>277.1</v>
@@ -19124,7 +19146,7 @@
         <v>843</v>
       </c>
       <c r="K368" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>277.7</v>
@@ -19175,7 +19197,7 @@
         <v>845</v>
       </c>
       <c r="K369" t="n">
-        <v>19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>277.9</v>
@@ -19226,7 +19248,7 @@
         <v>847</v>
       </c>
       <c r="K370" t="n">
-        <v>19.04761904761905</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L370" t="n">
         <v>278.1</v>
@@ -19277,7 +19299,7 @@
         <v>847</v>
       </c>
       <c r="K371" t="n">
-        <v>21.95121951219512</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L371" t="n">
         <v>278.2</v>
@@ -19328,7 +19350,7 @@
         <v>849</v>
       </c>
       <c r="K372" t="n">
-        <v>25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L372" t="n">
         <v>278.1</v>
@@ -19379,7 +19401,7 @@
         <v>852</v>
       </c>
       <c r="K373" t="n">
-        <v>18.91891891891892</v>
+        <v>20</v>
       </c>
       <c r="L373" t="n">
         <v>278.2</v>
@@ -19430,7 +19452,7 @@
         <v>853</v>
       </c>
       <c r="K374" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>278.4</v>
@@ -19481,7 +19503,7 @@
         <v>853</v>
       </c>
       <c r="K375" t="n">
-        <v>18.91891891891892</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L375" t="n">
         <v>278.4</v>
@@ -19532,7 +19554,7 @@
         <v>853</v>
       </c>
       <c r="K376" t="n">
-        <v>41.93548387096774</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L376" t="n">
         <v>278.5</v>
@@ -19583,7 +19605,7 @@
         <v>857</v>
       </c>
       <c r="K377" t="n">
-        <v>23.52941176470588</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L377" t="n">
         <v>278.3</v>
@@ -19634,7 +19656,7 @@
         <v>857</v>
       </c>
       <c r="K378" t="n">
-        <v>7.142857142857142</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L378" t="n">
         <v>277.9</v>
@@ -19685,7 +19707,7 @@
         <v>860</v>
       </c>
       <c r="K379" t="n">
-        <v>10.3448275862069</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L379" t="n">
         <v>278</v>
@@ -19736,7 +19758,7 @@
         <v>861</v>
       </c>
       <c r="K380" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>278</v>
@@ -19787,7 +19809,7 @@
         <v>865</v>
       </c>
       <c r="K381" t="n">
-        <v>-9.67741935483871</v>
+        <v>-12.5</v>
       </c>
       <c r="L381" t="n">
         <v>277.6</v>
@@ -19838,7 +19860,7 @@
         <v>874</v>
       </c>
       <c r="K382" t="n">
-        <v>-30</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L382" t="n">
         <v>276.5</v>
@@ -19940,7 +19962,7 @@
         <v>893</v>
       </c>
       <c r="K384" t="n">
-        <v>-7.142857142857142</v>
+        <v>-15</v>
       </c>
       <c r="L384" t="n">
         <v>275.8</v>
@@ -19991,7 +20013,7 @@
         <v>893</v>
       </c>
       <c r="K385" t="n">
-        <v>-11.11111111111111</v>
+        <v>-15</v>
       </c>
       <c r="L385" t="n">
         <v>275.2</v>
@@ -20042,7 +20064,7 @@
         <v>893</v>
       </c>
       <c r="K386" t="n">
-        <v>-9.433962264150944</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L386" t="n">
         <v>274.6</v>
@@ -20093,7 +20115,7 @@
         <v>893</v>
       </c>
       <c r="K387" t="n">
-        <v>-7.692307692307693</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L387" t="n">
         <v>274.4</v>
@@ -20144,7 +20166,7 @@
         <v>896</v>
       </c>
       <c r="K388" t="n">
-        <v>-16.9811320754717</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L388" t="n">
         <v>273.9</v>
@@ -20195,7 +20217,7 @@
         <v>899</v>
       </c>
       <c r="K389" t="n">
-        <v>-18.51851851851852</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L389" t="n">
         <v>272.8</v>
@@ -20246,7 +20268,7 @@
         <v>900</v>
       </c>
       <c r="K390" t="n">
-        <v>-24.52830188679245</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L390" t="n">
         <v>271.5</v>
@@ -20297,7 +20319,7 @@
         <v>906</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.86440677966102</v>
+        <v>18.75</v>
       </c>
       <c r="L391" t="n">
         <v>271.2</v>
@@ -20348,7 +20370,7 @@
         <v>914</v>
       </c>
       <c r="K392" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L392" t="n">
         <v>271</v>
@@ -20399,7 +20421,7 @@
         <v>920</v>
       </c>
       <c r="K393" t="n">
-        <v>-14.70588235294118</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L393" t="n">
         <v>270.1</v>
@@ -20450,7 +20472,7 @@
         <v>924</v>
       </c>
       <c r="K394" t="n">
-        <v>-18.30985915492958</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L394" t="n">
         <v>269.4</v>
@@ -20501,7 +20523,7 @@
         <v>925</v>
       </c>
       <c r="K395" t="n">
-        <v>-19.44444444444445</v>
+        <v>-25</v>
       </c>
       <c r="L395" t="n">
         <v>268.6</v>
@@ -20552,7 +20574,7 @@
         <v>925</v>
       </c>
       <c r="K396" t="n">
-        <v>-19.44444444444445</v>
+        <v>-25</v>
       </c>
       <c r="L396" t="n">
         <v>267.8</v>
@@ -20603,7 +20625,7 @@
         <v>925</v>
       </c>
       <c r="K397" t="n">
-        <v>-14.70588235294118</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L397" t="n">
         <v>267</v>
@@ -20654,7 +20676,7 @@
         <v>927</v>
       </c>
       <c r="K398" t="n">
-        <v>-11.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>266.7</v>
@@ -20705,7 +20727,7 @@
         <v>930</v>
       </c>
       <c r="K399" t="n">
-        <v>-20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L399" t="n">
         <v>266.4</v>
@@ -20756,7 +20778,7 @@
         <v>935</v>
       </c>
       <c r="K400" t="n">
-        <v>-13.51351351351351</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L400" t="n">
         <v>266.7</v>
@@ -20807,7 +20829,7 @@
         <v>936</v>
       </c>
       <c r="K401" t="n">
-        <v>-9.859154929577464</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L401" t="n">
         <v>266.3</v>
@@ -20858,7 +20880,7 @@
         <v>938</v>
       </c>
       <c r="K402" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>266.9</v>
@@ -20909,7 +20931,7 @@
         <v>942</v>
       </c>
       <c r="K403" t="n">
-        <v>-23.63636363636364</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>266.5</v>
@@ -20960,7 +20982,7 @@
         <v>943</v>
       </c>
       <c r="K404" t="n">
-        <v>-12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L404" t="n">
         <v>266.6</v>
@@ -21011,7 +21033,7 @@
         <v>946</v>
       </c>
       <c r="K405" t="n">
-        <v>-5.660377358490567</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L405" t="n">
         <v>267.1</v>
@@ -21062,7 +21084,7 @@
         <v>952</v>
       </c>
       <c r="K406" t="n">
-        <v>-15.25423728813559</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L406" t="n">
         <v>267</v>
@@ -21113,7 +21135,7 @@
         <v>953</v>
       </c>
       <c r="K407" t="n">
-        <v>-13.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L407" t="n">
         <v>267</v>
@@ -21164,7 +21186,7 @@
         <v>953</v>
       </c>
       <c r="K408" t="n">
-        <v>-8.771929824561402</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L408" t="n">
         <v>266.8</v>
@@ -21215,7 +21237,7 @@
         <v>953</v>
       </c>
       <c r="K409" t="n">
-        <v>-3.703703703703703</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L409" t="n">
         <v>266.9</v>
@@ -21266,7 +21288,7 @@
         <v>953</v>
       </c>
       <c r="K410" t="n">
-        <v>-1.886792452830189</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L410" t="n">
         <v>266.5</v>
@@ -21317,7 +21339,7 @@
         <v>954</v>
       </c>
       <c r="K411" t="n">
-        <v>-16.66666666666666</v>
+        <v>-37.5</v>
       </c>
       <c r="L411" t="n">
         <v>266.1</v>
@@ -21368,7 +21390,7 @@
         <v>955</v>
       </c>
       <c r="K412" t="n">
-        <v>2.439024390243902</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L412" t="n">
         <v>265.6</v>
@@ -21419,7 +21441,7 @@
         <v>955</v>
       </c>
       <c r="K413" t="n">
-        <v>-14.28571428571428</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L413" t="n">
         <v>265.5</v>
@@ -21470,7 +21492,7 @@
         <v>957</v>
       </c>
       <c r="K414" t="n">
-        <v>3.03030303030303</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L414" t="n">
         <v>265.5</v>
@@ -21521,7 +21543,7 @@
         <v>960</v>
       </c>
       <c r="K415" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>264.9</v>
@@ -21572,7 +21594,7 @@
         <v>961</v>
       </c>
       <c r="K416" t="n">
-        <v>-5.555555555555555</v>
+        <v>-25</v>
       </c>
       <c r="L416" t="n">
         <v>264.8</v>
@@ -21623,7 +21645,7 @@
         <v>961</v>
       </c>
       <c r="K417" t="n">
-        <v>-5.555555555555555</v>
+        <v>-25</v>
       </c>
       <c r="L417" t="n">
         <v>264.6</v>
@@ -21674,7 +21696,7 @@
         <v>962</v>
       </c>
       <c r="K418" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L418" t="n">
         <v>264.3</v>
@@ -21725,7 +21747,7 @@
         <v>962</v>
       </c>
       <c r="K419" t="n">
-        <v>-6.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L419" t="n">
         <v>264</v>
@@ -21776,7 +21798,7 @@
         <v>963</v>
       </c>
       <c r="K420" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>263.6</v>
@@ -21827,7 +21849,7 @@
         <v>964</v>
       </c>
       <c r="K421" t="n">
-        <v>-28.57142857142857</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L421" t="n">
         <v>263.2</v>
@@ -21878,7 +21900,7 @@
         <v>964</v>
       </c>
       <c r="K422" t="n">
-        <v>-38.46153846153847</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L422" t="n">
         <v>262.7</v>
@@ -21929,7 +21951,7 @@
         <v>966</v>
       </c>
       <c r="K423" t="n">
-        <v>-16.66666666666666</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L423" t="n">
         <v>262.4</v>
@@ -21980,7 +22002,7 @@
         <v>968</v>
       </c>
       <c r="K424" t="n">
-        <v>-28</v>
+        <v>-50</v>
       </c>
       <c r="L424" t="n">
         <v>261.7</v>
@@ -22031,7 +22053,7 @@
         <v>972</v>
       </c>
       <c r="K425" t="n">
-        <v>-53.84615384615385</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L425" t="n">
         <v>260.9</v>
@@ -22082,7 +22104,7 @@
         <v>975</v>
       </c>
       <c r="K426" t="n">
-        <v>-21.73913043478261</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L426" t="n">
         <v>260.5</v>
@@ -22133,7 +22155,7 @@
         <v>978</v>
       </c>
       <c r="K427" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>260.4</v>
@@ -22184,7 +22206,7 @@
         <v>978</v>
       </c>
       <c r="K428" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>260.4</v>
@@ -22235,7 +22257,7 @@
         <v>981</v>
       </c>
       <c r="K429" t="n">
-        <v>-21.42857142857143</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L429" t="n">
         <v>260.1</v>
@@ -22286,7 +22308,7 @@
         <v>981</v>
       </c>
       <c r="K430" t="n">
-        <v>-21.42857142857143</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L430" t="n">
         <v>259.9</v>
@@ -22337,7 +22359,7 @@
         <v>984</v>
       </c>
       <c r="K431" t="n">
-        <v>-6.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="L431" t="n">
         <v>260.1</v>
@@ -22388,7 +22410,7 @@
         <v>984</v>
       </c>
       <c r="K432" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>260.3</v>
@@ -22439,7 +22461,7 @@
         <v>987</v>
       </c>
       <c r="K433" t="n">
-        <v>-18.75</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L433" t="n">
         <v>260</v>
@@ -22490,7 +22512,7 @@
         <v>987</v>
       </c>
       <c r="K434" t="n">
-        <v>-26.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="L434" t="n">
         <v>259.9</v>
@@ -22541,7 +22563,7 @@
         <v>991</v>
       </c>
       <c r="K435" t="n">
-        <v>-3.225806451612903</v>
+        <v>25</v>
       </c>
       <c r="L435" t="n">
         <v>260.6</v>
@@ -22592,7 +22614,7 @@
         <v>994</v>
       </c>
       <c r="K436" t="n">
-        <v>-9.090909090909092</v>
+        <v>-12.5</v>
       </c>
       <c r="L436" t="n">
         <v>260.7</v>
@@ -22643,7 +22665,7 @@
         <v>995</v>
       </c>
       <c r="K437" t="n">
-        <v>-11.76470588235294</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L437" t="n">
         <v>260.4</v>
@@ -22694,7 +22716,7 @@
         <v>995</v>
       </c>
       <c r="K438" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>260.1</v>
@@ -22745,7 +22767,7 @@
         <v>997</v>
       </c>
       <c r="K439" t="n">
-        <v>-14.28571428571428</v>
+        <v>-12.5</v>
       </c>
       <c r="L439" t="n">
         <v>259.9</v>
@@ -22796,7 +22818,7 @@
         <v>1002</v>
       </c>
       <c r="K440" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>260.2</v>
@@ -22847,7 +22869,7 @@
         <v>1002</v>
       </c>
       <c r="K441" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>260.2</v>
@@ -22898,7 +22920,7 @@
         <v>1002</v>
       </c>
       <c r="K442" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L442" t="n">
         <v>260.2</v>
@@ -22949,7 +22971,7 @@
         <v>1006</v>
       </c>
       <c r="K443" t="n">
-        <v>-10</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L443" t="n">
         <v>260.1</v>
@@ -23000,7 +23022,7 @@
         <v>1006</v>
       </c>
       <c r="K444" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L444" t="n">
         <v>260</v>
@@ -23051,7 +23073,7 @@
         <v>1007</v>
       </c>
       <c r="K445" t="n">
-        <v>2.857142857142857</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L445" t="n">
         <v>259.4</v>
@@ -23102,7 +23124,7 @@
         <v>1008</v>
       </c>
       <c r="K446" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L446" t="n">
         <v>259</v>
@@ -23153,7 +23175,7 @@
         <v>1010</v>
       </c>
       <c r="K447" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L447" t="n">
         <v>258.5</v>
@@ -23204,7 +23226,7 @@
         <v>1011</v>
       </c>
       <c r="K448" t="n">
-        <v>-21.21212121212121</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L448" t="n">
         <v>258.1</v>
@@ -23255,7 +23277,7 @@
         <v>1011</v>
       </c>
       <c r="K449" t="n">
-        <v>-13.33333333333333</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L449" t="n">
         <v>257.9</v>
@@ -23306,7 +23328,7 @@
         <v>1013</v>
       </c>
       <c r="K450" t="n">
-        <v>-18.75</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L450" t="n">
         <v>257</v>
@@ -23357,7 +23379,7 @@
         <v>1013</v>
       </c>
       <c r="K451" t="n">
-        <v>-31.03448275862069</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L451" t="n">
         <v>256.1</v>
@@ -23408,7 +23430,7 @@
         <v>1013</v>
       </c>
       <c r="K452" t="n">
-        <v>-31.03448275862069</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L452" t="n">
         <v>255.2</v>
@@ -23459,7 +23481,7 @@
         <v>1014</v>
       </c>
       <c r="K453" t="n">
-        <v>-18.51851851851852</v>
+        <v>-50</v>
       </c>
       <c r="L453" t="n">
         <v>254.8</v>
@@ -23510,7 +23532,7 @@
         <v>1014</v>
       </c>
       <c r="K454" t="n">
-        <v>-18.51851851851852</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L454" t="n">
         <v>254.4</v>
@@ -23561,7 +23583,7 @@
         <v>1014</v>
       </c>
       <c r="K455" t="n">
-        <v>-39.1304347826087</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L455" t="n">
         <v>254.1</v>
@@ -23612,7 +23634,7 @@
         <v>1014</v>
       </c>
       <c r="K456" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>253.9</v>
@@ -23663,7 +23685,7 @@
         <v>1014</v>
       </c>
       <c r="K457" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L457" t="n">
         <v>253.9</v>
@@ -23714,7 +23736,7 @@
         <v>1020</v>
       </c>
       <c r="K458" t="n">
-        <v>-44</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L458" t="n">
         <v>253.2</v>
@@ -23765,7 +23787,7 @@
         <v>1025</v>
       </c>
       <c r="K459" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L459" t="n">
         <v>253</v>
@@ -23816,7 +23838,7 @@
         <v>1025</v>
       </c>
       <c r="K460" t="n">
-        <v>-39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>253</v>
@@ -23867,7 +23889,7 @@
         <v>1025</v>
       </c>
       <c r="K461" t="n">
-        <v>-39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>253</v>
@@ -23918,7 +23940,7 @@
         <v>1028</v>
       </c>
       <c r="K462" t="n">
-        <v>-46.15384615384615</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L462" t="n">
         <v>252.7</v>
@@ -23969,7 +23991,7 @@
         <v>1028</v>
       </c>
       <c r="K463" t="n">
-        <v>-36.36363636363637</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L463" t="n">
         <v>252.3</v>
@@ -24020,7 +24042,7 @@
         <v>1028</v>
       </c>
       <c r="K464" t="n">
-        <v>-36.36363636363637</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L464" t="n">
         <v>251.9</v>
@@ -24071,7 +24093,7 @@
         <v>1032</v>
       </c>
       <c r="K465" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>251.9</v>
@@ -24122,7 +24144,7 @@
         <v>1036</v>
       </c>
       <c r="K466" t="n">
-        <v>-21.42857142857143</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L466" t="n">
         <v>251.5</v>
@@ -24173,7 +24195,7 @@
         <v>1049</v>
       </c>
       <c r="K467" t="n">
-        <v>23.07692307692308</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L467" t="n">
         <v>252.4</v>
@@ -24224,7 +24246,7 @@
         <v>1052</v>
       </c>
       <c r="K468" t="n">
-        <v>26.82926829268293</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L468" t="n">
         <v>254.2</v>
@@ -24275,7 +24297,7 @@
         <v>1056</v>
       </c>
       <c r="K469" t="n">
-        <v>15.55555555555556</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L469" t="n">
         <v>255.1</v>
@@ -24326,7 +24348,7 @@
         <v>1057</v>
       </c>
       <c r="K470" t="n">
-        <v>18.18181818181818</v>
+        <v>25</v>
       </c>
       <c r="L470" t="n">
         <v>255.9</v>
@@ -24377,7 +24399,7 @@
         <v>1061</v>
       </c>
       <c r="K471" t="n">
-        <v>8.333333333333332</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L471" t="n">
         <v>256.3</v>
@@ -24428,7 +24450,7 @@
         <v>1064</v>
       </c>
       <c r="K472" t="n">
-        <v>13.72549019607843</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L472" t="n">
         <v>257.3</v>
@@ -24479,7 +24501,7 @@
         <v>1064</v>
       </c>
       <c r="K473" t="n">
-        <v>12</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L473" t="n">
         <v>258.3</v>
@@ -24530,7 +24552,7 @@
         <v>1064</v>
       </c>
       <c r="K474" t="n">
-        <v>12</v>
+        <v>18.75</v>
       </c>
       <c r="L474" t="n">
         <v>259.3</v>
@@ -24581,7 +24603,7 @@
         <v>1068</v>
       </c>
       <c r="K475" t="n">
-        <v>18.51851851851852</v>
+        <v>43.75</v>
       </c>
       <c r="L475" t="n">
         <v>260.3</v>
@@ -24632,7 +24654,7 @@
         <v>1068</v>
       </c>
       <c r="K476" t="n">
-        <v>18.51851851851852</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L476" t="n">
         <v>261.7</v>
@@ -24683,7 +24705,7 @@
         <v>1070</v>
       </c>
       <c r="K477" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>262</v>
@@ -24734,7 +24756,7 @@
         <v>1072</v>
       </c>
       <c r="K478" t="n">
-        <v>30.76923076923077</v>
+        <v>12.5</v>
       </c>
       <c r="L478" t="n">
         <v>261.8</v>
@@ -24785,7 +24807,7 @@
         <v>1074</v>
       </c>
       <c r="K479" t="n">
-        <v>26.53061224489796</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L479" t="n">
         <v>262.2</v>
@@ -24836,7 +24858,7 @@
         <v>1080</v>
       </c>
       <c r="K480" t="n">
-        <v>12.72727272727273</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L480" t="n">
         <v>262.1</v>
@@ -24887,7 +24909,7 @@
         <v>1086</v>
       </c>
       <c r="K481" t="n">
-        <v>21.31147540983606</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L481" t="n">
         <v>263</v>
@@ -24938,7 +24960,7 @@
         <v>1087</v>
       </c>
       <c r="K482" t="n">
-        <v>25.42372881355932</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L482" t="n">
         <v>263.5</v>
@@ -24989,7 +25011,7 @@
         <v>1087</v>
       </c>
       <c r="K483" t="n">
-        <v>25.42372881355932</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L483" t="n">
         <v>264</v>
@@ -25040,7 +25062,7 @@
         <v>1088</v>
       </c>
       <c r="K484" t="n">
-        <v>23.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L484" t="n">
         <v>264.4</v>
@@ -25091,7 +25113,7 @@
         <v>1089</v>
       </c>
       <c r="K485" t="n">
-        <v>19.29824561403509</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L485" t="n">
         <v>264.5</v>
@@ -25142,7 +25164,7 @@
         <v>1092</v>
       </c>
       <c r="K486" t="n">
-        <v>21.42857142857143</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L486" t="n">
         <v>264.3</v>
@@ -25193,7 +25215,7 @@
         <v>1094</v>
       </c>
       <c r="K487" t="n">
-        <v>2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L487" t="n">
         <v>264.1</v>
@@ -25244,7 +25266,7 @@
         <v>1094</v>
       </c>
       <c r="K488" t="n">
-        <v>-4.761904761904762</v>
+        <v>-10</v>
       </c>
       <c r="L488" t="n">
         <v>264.1</v>
@@ -25295,7 +25317,7 @@
         <v>1097</v>
       </c>
       <c r="K489" t="n">
-        <v>12.19512195121951</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L489" t="n">
         <v>264.2</v>

--- a/BackTest/2019-11-12 BackTest ABT.xlsx
+++ b/BackTest/2019-11-12 BackTest ABT.xlsx
@@ -451,20 +451,14 @@
         <v>216.9666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>222</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>217.1833333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>220</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>217.4666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>226</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>217.7666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>226</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>218.0833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>228</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>218.3833333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>230</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>218.7166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>229</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>219</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>229</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>219.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>228</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>219.65</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>228</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>220.05</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>233</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>220.4166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>236</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -950,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -989,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1067,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1106,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1145,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1223,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1262,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1301,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1340,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1379,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1418,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1496,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1535,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1574,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1613,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1652,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1691,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1730,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1769,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1808,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1847,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1925,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1964,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2042,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2120,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2159,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2191,20 +1991,14 @@
         <v>230.4</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>229</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2232,20 +2026,14 @@
         <v>230.6833333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>230</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2273,20 +2061,14 @@
         <v>230.85</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>230</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2314,20 +2096,14 @@
         <v>231.0333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>231</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2362,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2401,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2440,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2472,20 +2236,14 @@
         <v>231.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>225</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2513,20 +2271,14 @@
         <v>231.0833333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>224</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2554,20 +2306,14 @@
         <v>230.95</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>222</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2595,20 +2341,14 @@
         <v>230.8166666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>222</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2636,20 +2376,14 @@
         <v>230.7</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>223</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2677,20 +2411,14 @@
         <v>230.6833333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>224</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2718,20 +2446,14 @@
         <v>230.6333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>222</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2759,20 +2481,14 @@
         <v>230.7</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>221</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2800,20 +2516,14 @@
         <v>230.7333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>228</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2841,20 +2551,14 @@
         <v>230.8833333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>228</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2882,20 +2586,14 @@
         <v>230.9333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>229</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2923,20 +2621,14 @@
         <v>231</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>229</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2964,20 +2656,14 @@
         <v>231.0333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>230</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3005,20 +2691,14 @@
         <v>231.0333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>230</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3046,20 +2726,14 @@
         <v>231.0333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>230</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3087,20 +2761,14 @@
         <v>231</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>230</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3128,20 +2796,14 @@
         <v>231.0333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>230</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3169,20 +2831,14 @@
         <v>231.0833333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>232</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3217,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3295,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3334,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3451,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3529,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3568,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3607,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3646,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3724,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3841,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3880,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3958,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3997,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4075,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4231,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4270,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4387,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4426,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4504,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4738,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4816,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4894,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4933,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5050,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5167,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5245,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5284,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5316,20 +4756,14 @@
         <v>234.6</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>223</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5357,20 +4791,14 @@
         <v>234.55</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>222</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5398,20 +4826,14 @@
         <v>234.5</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>221</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5439,20 +4861,14 @@
         <v>234.4166666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>225</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5486,12 +4902,12 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -5650,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
@@ -5732,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
@@ -5773,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
@@ -5814,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
@@ -5855,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
@@ -5890,14 +5306,12 @@
         <v>233.1166666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>233</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -8775,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>

--- a/BackTest/2019-11-12 BackTest ABT.xlsx
+++ b/BackTest/2019-11-12 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>243734.8789</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>237734.8789</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>213</v>
@@ -523,7 +523,7 @@
         <v>238234.8789</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>209</v>
@@ -562,7 +562,7 @@
         <v>243535.5922</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>210</v>
@@ -601,7 +601,7 @@
         <v>246427.7907</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>211</v>
@@ -640,7 +640,7 @@
         <v>246427.7907</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>212</v>
@@ -679,7 +679,7 @@
         <v>246427.7907</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>212</v>
@@ -718,7 +718,7 @@
         <v>244934.5148</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>212</v>
@@ -757,7 +757,7 @@
         <v>246860.5148</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>210</v>
@@ -796,7 +796,7 @@
         <v>246860.5148</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>212</v>
@@ -835,7 +835,7 @@
         <v>246860.5148</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>212</v>
@@ -874,7 +874,7 @@
         <v>246860.5148</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>212</v>
@@ -913,7 +913,7 @@
         <v>246860.5148</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>212</v>
@@ -952,7 +952,7 @@
         <v>246857.5398</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>212</v>
@@ -991,7 +991,7 @@
         <v>263406.6738</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>211</v>
@@ -1030,7 +1030,7 @@
         <v>309576.0358</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>213</v>
@@ -1069,9 +1069,11 @@
         <v>307491.9237</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>217</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1106,9 +1108,11 @@
         <v>321872.5123</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>212</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1143,9 +1147,11 @@
         <v>321872.5123</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>217</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1180,9 +1186,11 @@
         <v>321872.5123</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>217</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1217,9 +1225,11 @@
         <v>306571.1997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>217</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1254,9 +1264,11 @@
         <v>304649.9146</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>215</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1291,9 +1303,11 @@
         <v>305745.8564887851</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>212</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1328,9 +1342,11 @@
         <v>302663.6433887851</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>214</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1365,9 +1381,11 @@
         <v>306660.9843887851</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>212</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1402,9 +1420,11 @@
         <v>306660.9843887851</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>213</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1439,9 +1459,11 @@
         <v>306660.9843887851</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>213</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1476,9 +1498,11 @@
         <v>305660.9843887851</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>213</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1513,9 +1537,11 @@
         <v>306160.9843887851</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>212</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1550,9 +1576,11 @@
         <v>306160.9843887851</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>215</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1587,9 +1615,11 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>215</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1624,9 +1654,11 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>216</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1661,9 +1693,11 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>216</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1698,9 +1732,11 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>216</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1735,9 +1771,11 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>216</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -10097,16 +10135,18 @@
         <v>575958.2132419483</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L262" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
       <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
@@ -10132,11 +10172,15 @@
         <v>577334.2561419483</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10165,11 +10209,15 @@
         <v>566913.7105419483</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10198,11 +10246,15 @@
         <v>569585.4595419483</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10231,11 +10283,15 @@
         <v>569585.4595419483</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10264,11 +10320,15 @@
         <v>593555.8208419483</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10297,11 +10357,15 @@
         <v>520128.322429726</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10330,11 +10394,15 @@
         <v>520616.322429726</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10363,11 +10431,15 @@
         <v>516768.7516612849</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10396,11 +10468,15 @@
         <v>521891.639461285</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10429,11 +10505,15 @@
         <v>530613.157261285</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10462,11 +10542,15 @@
         <v>549510.821661285</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10495,11 +10579,15 @@
         <v>553088.616461285</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10528,11 +10616,15 @@
         <v>540103.636961285</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10561,11 +10653,15 @@
         <v>583732.530261285</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10594,11 +10690,15 @@
         <v>602964.704261285</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10627,11 +10727,15 @@
         <v>613422.834961285</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10664,7 +10768,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10697,7 +10805,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10730,7 +10842,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10759,11 +10875,15 @@
         <v>656790.3456890628</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10796,7 +10916,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10825,11 +10949,15 @@
         <v>668837.3927847362</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10858,11 +10986,15 @@
         <v>689969.3606847363</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10891,14 +11023,16 @@
         <v>678763.9979847362</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -10924,7 +11058,7 @@
         <v>673720.2754847362</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10957,7 +11091,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10990,7 +11124,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11023,7 +11157,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11056,7 +11190,7 @@
         <v>631193.1460847362</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11089,7 +11223,7 @@
         <v>668822.0130847362</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11122,7 +11256,7 @@
         <v>682150.0220847361</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11155,7 +11289,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11188,7 +11322,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11221,7 +11355,7 @@
         <v>680539.6601847361</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11254,7 +11388,7 @@
         <v>687611.3563847361</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11287,7 +11421,7 @@
         <v>686310.8446847361</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11353,7 +11487,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11386,7 +11520,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11419,7 +11553,7 @@
         <v>656177.3026847361</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11452,7 +11586,7 @@
         <v>646765.6198847361</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11485,7 +11619,7 @@
         <v>648896.6198847361</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11518,7 +11652,7 @@
         <v>652502.8629847361</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11551,7 +11685,7 @@
         <v>651402.8629847361</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11584,7 +11718,7 @@
         <v>654509.0459847361</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11617,7 +11751,7 @@
         <v>665939.9603847361</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11650,7 +11784,7 @@
         <v>660509.8605847361</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11683,7 +11817,7 @@
         <v>658423.7993847361</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11716,7 +11850,7 @@
         <v>680698.1803847362</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11749,7 +11883,7 @@
         <v>679129.3411847361</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11782,7 +11916,7 @@
         <v>681996.2754847361</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11947,7 +12081,7 @@
         <v>689876.557884736</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12178,7 +12312,7 @@
         <v>704390.2286205625</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12211,7 +12345,7 @@
         <v>702990.2286205625</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12244,7 +12378,7 @@
         <v>704394.2286205625</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12277,7 +12411,7 @@
         <v>701051.7407205625</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12310,7 +12444,7 @@
         <v>701051.7407205625</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12343,7 +12477,7 @@
         <v>701053.7407205625</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12376,7 +12510,7 @@
         <v>692588.7334205625</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12409,7 +12543,7 @@
         <v>692588.7334205625</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12442,7 +12576,7 @@
         <v>692463.9262205624</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12475,7 +12609,7 @@
         <v>692463.9262205624</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12508,7 +12642,7 @@
         <v>692463.9262205624</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12541,7 +12675,7 @@
         <v>692422.6652339953</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12574,7 +12708,7 @@
         <v>662975.6794339953</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12607,7 +12741,7 @@
         <v>665903.4949339953</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12640,7 +12774,7 @@
         <v>664153.4949339953</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12673,7 +12807,7 @@
         <v>664153.4949339953</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12706,7 +12840,7 @@
         <v>664153.4949339953</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12739,7 +12873,7 @@
         <v>660453.1199339953</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12772,7 +12906,7 @@
         <v>666576.3993339953</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12805,7 +12939,7 @@
         <v>670629.0582339953</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12838,7 +12972,7 @@
         <v>668771.8734339953</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12871,7 +13005,7 @@
         <v>668773.8734339953</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12904,7 +13038,7 @@
         <v>669273.8734339953</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12970,7 +13104,7 @@
         <v>669223.8734339953</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13003,7 +13137,7 @@
         <v>669225.8734339953</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13036,7 +13170,7 @@
         <v>668596.1930339953</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13069,7 +13203,7 @@
         <v>668596.1930339953</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13267,7 +13401,7 @@
         <v>699189.7527339954</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13300,7 +13434,7 @@
         <v>708140.8097339955</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13333,7 +13467,7 @@
         <v>708182.8097339955</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13399,7 +13533,7 @@
         <v>725941.6375877322</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13432,7 +13566,7 @@
         <v>725491.6375877322</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13465,7 +13599,7 @@
         <v>725491.6375877322</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13498,7 +13632,7 @@
         <v>725491.6375877322</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13531,7 +13665,7 @@
         <v>725532.7084877322</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13564,7 +13698,7 @@
         <v>721528.3290877322</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13663,7 +13797,7 @@
         <v>726613.9473877323</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13696,7 +13830,7 @@
         <v>718809.8054877323</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13729,7 +13863,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13762,7 +13896,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13795,7 +13929,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13828,7 +13962,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13861,7 +13995,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13894,7 +14028,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13927,7 +14061,7 @@
         <v>716052.7852877323</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13960,7 +14094,7 @@
         <v>716537.9651877322</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13993,7 +14127,7 @@
         <v>717386.9675877322</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14026,7 +14160,7 @@
         <v>716602.7178877322</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14059,7 +14193,7 @@
         <v>719963.9122877322</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14092,7 +14226,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14125,7 +14259,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14158,7 +14292,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14191,7 +14325,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14224,7 +14358,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14257,7 +14391,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15346,7 +15480,7 @@
         <v>760441.7186877324</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15379,7 +15513,7 @@
         <v>779364.7926877324</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15412,7 +15546,7 @@
         <v>776562.7926877324</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15445,7 +15579,7 @@
         <v>778087.1497877324</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15478,7 +15612,7 @@
         <v>776085.0327877324</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15511,7 +15645,7 @@
         <v>769174.9658877325</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15544,7 +15678,7 @@
         <v>769215.9629877325</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15577,7 +15711,7 @@
         <v>765070.7699877325</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15610,7 +15744,7 @@
         <v>767372.6734877325</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15643,7 +15777,7 @@
         <v>767372.6734877325</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15676,7 +15810,7 @@
         <v>759800.5771877326</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15709,7 +15843,7 @@
         <v>761775.5984877326</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15742,7 +15876,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15775,7 +15909,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15808,7 +15942,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15841,7 +15975,7 @@
         <v>755002.2415877326</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15874,7 +16008,7 @@
         <v>755002.2415877326</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15907,7 +16041,7 @@
         <v>755765.8261877325</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15940,7 +16074,7 @@
         <v>759874.9274877325</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15973,7 +16107,7 @@
         <v>759793.9274877325</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17029,7 +17163,7 @@
         <v>745859.1105877324</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17260,7 +17394,7 @@
         <v>727117.1846877324</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17293,7 +17427,7 @@
         <v>723129.4446877324</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17326,7 +17460,7 @@
         <v>723129.4446877324</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17359,7 +17493,7 @@
         <v>723224.7799877324</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17425,7 +17559,7 @@
         <v>698658.4372877324</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17458,7 +17592,7 @@
         <v>698698.4372877324</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17491,7 +17625,7 @@
         <v>699186.1307877324</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17524,7 +17658,7 @@
         <v>699186.1307877324</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18085,7 +18219,7 @@
         <v>709573.8401877325</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18118,7 +18252,7 @@
         <v>708418.7001877325</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18151,7 +18285,7 @@
         <v>696543.3635877324</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18184,7 +18318,7 @@
         <v>696926.3532877325</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18217,7 +18351,7 @@
         <v>696926.3532877325</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18283,7 +18417,7 @@
         <v>672651.7174877324</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18316,7 +18450,7 @@
         <v>672651.7174877324</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18349,7 +18483,7 @@
         <v>675478.7318877324</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18382,7 +18516,7 @@
         <v>675478.7318877324</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18448,7 +18582,7 @@
         <v>675478.7318877324</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18547,7 +18681,7 @@
         <v>674454.6951877325</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18613,7 +18747,7 @@
         <v>674454.6951877325</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18646,7 +18780,7 @@
         <v>673182.5197877325</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18679,7 +18813,7 @@
         <v>673182.5197877325</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18712,7 +18846,7 @@
         <v>673182.5197877325</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18745,7 +18879,7 @@
         <v>673184.6451877325</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18778,7 +18912,7 @@
         <v>668179.6451877325</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18811,7 +18945,7 @@
         <v>686718.6451877325</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18844,7 +18978,7 @@
         <v>693928.6151125446</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18877,7 +19011,7 @@
         <v>691730.8897125446</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19185,6 +19319,6 @@
       <c r="M537" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest ABT.xlsx
+++ b/BackTest/2019-11-12 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1069,11 +1069,9 @@
         <v>307491.9237</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1106,9 @@
         <v>321872.5123</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1143,9 @@
         <v>321872.5123</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,11 +1180,9 @@
         <v>321872.5123</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1225,11 +1217,9 @@
         <v>306571.1997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1264,11 +1254,9 @@
         <v>304649.9146</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1303,11 +1291,9 @@
         <v>305745.8564887851</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1342,11 +1328,9 @@
         <v>302663.6433887851</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1381,11 +1365,9 @@
         <v>306660.9843887851</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1420,11 +1402,9 @@
         <v>306660.9843887851</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1459,11 +1439,9 @@
         <v>306660.9843887851</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1498,11 +1476,9 @@
         <v>305660.9843887851</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1537,11 +1513,9 @@
         <v>306160.9843887851</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1576,11 +1550,9 @@
         <v>306160.9843887851</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1615,11 +1587,9 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1654,11 +1624,9 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1693,11 +1661,9 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1732,11 +1698,9 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1771,11 +1735,9 @@
         <v>307160.9843887851</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -3105,18 +3067,16 @@
         <v>418883.9159887852</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -3146,11 +3106,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3179,15 +3135,11 @@
         <v>429969.8184887852</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3216,15 +3168,11 @@
         <v>424401.1583887852</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3253,15 +3201,11 @@
         <v>410071.1694887852</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3294,11 +3238,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3331,11 +3271,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3364,15 +3300,11 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3401,15 +3333,11 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3438,15 +3366,11 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3475,15 +3399,11 @@
         <v>434961.9572855774</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3512,15 +3432,11 @@
         <v>468075.2069855774</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3549,15 +3465,11 @@
         <v>482322.6840855774</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3586,15 +3498,11 @@
         <v>482822.6840855774</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3623,15 +3531,11 @@
         <v>481628.9522855774</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3664,11 +3568,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3601,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3634,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3667,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3812,11 +3700,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3845,15 +3729,11 @@
         <v>417374.0530855774</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3766,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +3799,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +3832,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3997,11 +3865,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4034,11 +3898,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +3931,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4108,11 +3964,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +3997,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4182,11 +4030,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +4063,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4256,11 +4096,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4293,11 +4129,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4162,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4367,11 +4195,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4404,11 +4228,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4441,11 +4261,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +4294,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4515,11 +4327,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4360,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4589,11 +4393,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4626,11 +4426,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4459,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4492,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +4525,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4558,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4591,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4848,11 +4624,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +4657,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4690,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +4723,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4996,11 +4756,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +4789,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +4822,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +4855,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +4888,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5181,11 +4921,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +4954,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +4987,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5292,11 +5020,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5329,11 +5053,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +5086,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5119,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5152,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5477,11 +5185,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5218,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5251,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5284,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +5317,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5350,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5383,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +5416,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5449,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5482,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5515,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5548,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5581,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5614,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5647,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5680,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5713,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5746,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5779,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5812,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +5845,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5878,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5911,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6324,15 +5940,11 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6361,15 +5973,11 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6398,15 +6006,11 @@
         <v>478039.2848869226</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6435,15 +6039,11 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6472,15 +6072,11 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6509,15 +6105,11 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6546,15 +6138,11 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6583,15 +6171,11 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6620,15 +6204,11 @@
         <v>477401.2848869226</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6657,15 +6237,11 @@
         <v>477326.4869869226</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6694,15 +6270,11 @@
         <v>477464.4869869226</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6307,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6340,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6373,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6406,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6439,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +6472,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +6505,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +6538,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +6571,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7068,11 +6604,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6637,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +6670,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7179,11 +6703,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +6736,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7253,11 +6769,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7290,11 +6802,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7327,11 +6835,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +6868,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7401,11 +6901,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +6934,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +6967,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7000,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +7033,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +7066,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +7099,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +7132,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +7165,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +7198,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +7231,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +7264,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7297,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7330,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7363,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7396,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7429,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7462,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7495,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7528,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7561,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7594,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +7627,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8252,11 +7660,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7693,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +7726,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +7759,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +7792,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +7825,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +7858,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +7891,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +7924,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +7957,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +7990,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +8023,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8696,11 +8056,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8729,15 +8085,11 @@
         <v>493539.5823274184</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +8122,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +8155,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +8188,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +8221,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8914,15 +8250,11 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8951,15 +8283,11 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8988,15 +8316,11 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9025,15 +8349,11 @@
         <v>491117.7576274184</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9062,15 +8382,11 @@
         <v>490602.8463274184</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9099,15 +8415,11 @@
         <v>492234.7890274184</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9136,15 +8448,11 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9173,15 +8481,11 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9210,15 +8514,11 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9247,15 +8547,11 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9284,15 +8580,11 @@
         <v>490372.6328419483</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +8617,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +8650,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +8683,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +8716,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +8749,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +8782,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +8815,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9584,11 +8848,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9621,11 +8881,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +8914,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +8947,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9732,11 +8980,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +9013,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +9046,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9843,11 +9079,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +9112,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +9145,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9954,11 +9178,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9991,11 +9211,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10028,11 +9244,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10065,11 +9277,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10102,11 +9310,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10139,11 +9343,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10176,11 +9376,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10213,11 +9409,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +9442,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10287,11 +9475,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +9508,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10361,11 +9541,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10398,11 +9574,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10435,11 +9607,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10472,11 +9640,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10509,11 +9673,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10546,11 +9706,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10583,11 +9739,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +9772,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10657,11 +9805,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10694,11 +9838,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +9871,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +9904,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +9937,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10842,11 +9970,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10003,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10916,11 +10036,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10953,11 +10069,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +10102,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11023,16 +10131,14 @@
         <v>678763.9979847362</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -11058,7 +10164,7 @@
         <v>673720.2754847362</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11091,7 +10197,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11124,7 +10230,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11157,7 +10263,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11190,7 +10296,7 @@
         <v>631193.1460847362</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11223,7 +10329,7 @@
         <v>668822.0130847362</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11256,7 +10362,7 @@
         <v>682150.0220847361</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11289,7 +10395,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11322,7 +10428,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11355,7 +10461,7 @@
         <v>680539.6601847361</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11388,7 +10494,7 @@
         <v>687611.3563847361</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11421,7 +10527,7 @@
         <v>686310.8446847361</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11487,7 +10593,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11520,7 +10626,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11553,7 +10659,7 @@
         <v>656177.3026847361</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11586,7 +10692,7 @@
         <v>646765.6198847361</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11619,7 +10725,7 @@
         <v>648896.6198847361</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11652,7 +10758,7 @@
         <v>652502.8629847361</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11685,7 +10791,7 @@
         <v>651402.8629847361</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11718,7 +10824,7 @@
         <v>654509.0459847361</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11751,7 +10857,7 @@
         <v>665939.9603847361</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11784,7 +10890,7 @@
         <v>660509.8605847361</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11817,7 +10923,7 @@
         <v>658423.7993847361</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11850,7 +10956,7 @@
         <v>680698.1803847362</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11883,7 +10989,7 @@
         <v>679129.3411847361</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11916,7 +11022,7 @@
         <v>681996.2754847361</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12312,7 +11418,7 @@
         <v>704390.2286205625</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12345,7 +11451,7 @@
         <v>702990.2286205625</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12378,7 +11484,7 @@
         <v>704394.2286205625</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12411,7 +11517,7 @@
         <v>701051.7407205625</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12444,7 +11550,7 @@
         <v>701051.7407205625</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12477,7 +11583,7 @@
         <v>701053.7407205625</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12510,7 +11616,7 @@
         <v>692588.7334205625</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12543,7 +11649,7 @@
         <v>692588.7334205625</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12576,7 +11682,7 @@
         <v>692463.9262205624</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12609,7 +11715,7 @@
         <v>692463.9262205624</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12642,7 +11748,7 @@
         <v>692463.9262205624</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12675,7 +11781,7 @@
         <v>692422.6652339953</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12708,7 +11814,7 @@
         <v>662975.6794339953</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12741,7 +11847,7 @@
         <v>665903.4949339953</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12774,7 +11880,7 @@
         <v>664153.4949339953</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12807,7 +11913,7 @@
         <v>664153.4949339953</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12840,7 +11946,7 @@
         <v>664153.4949339953</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12873,7 +11979,7 @@
         <v>660453.1199339953</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12906,7 +12012,7 @@
         <v>666576.3993339953</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12939,7 +12045,7 @@
         <v>670629.0582339953</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12972,7 +12078,7 @@
         <v>668771.8734339953</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13005,7 +12111,7 @@
         <v>668773.8734339953</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13038,7 +12144,7 @@
         <v>669273.8734339953</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13104,7 +12210,7 @@
         <v>669223.8734339953</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13137,7 +12243,7 @@
         <v>669225.8734339953</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13170,7 +12276,7 @@
         <v>668596.1930339953</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13203,7 +12309,7 @@
         <v>668596.1930339953</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13401,7 +12507,7 @@
         <v>699189.7527339954</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13434,7 +12540,7 @@
         <v>708140.8097339955</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13467,7 +12573,7 @@
         <v>708182.8097339955</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13863,7 +12969,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13896,7 +13002,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13929,7 +13035,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13962,7 +13068,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13995,7 +13101,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14028,7 +13134,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14061,7 +13167,7 @@
         <v>716052.7852877323</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14094,7 +13200,7 @@
         <v>716537.9651877322</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14127,7 +13233,7 @@
         <v>717386.9675877322</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14160,7 +13266,7 @@
         <v>716602.7178877322</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14193,7 +13299,7 @@
         <v>719963.9122877322</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14226,7 +13332,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14259,7 +13365,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14292,7 +13398,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14325,7 +13431,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14358,7 +13464,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14391,7 +13497,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15480,7 +14586,7 @@
         <v>760441.7186877324</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15612,7 +14718,7 @@
         <v>776085.0327877324</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15678,7 +14784,7 @@
         <v>769215.9629877325</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15711,7 +14817,7 @@
         <v>765070.7699877325</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15744,7 +14850,7 @@
         <v>767372.6734877325</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15777,7 +14883,7 @@
         <v>767372.6734877325</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15810,7 +14916,7 @@
         <v>759800.5771877326</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15843,7 +14949,7 @@
         <v>761775.5984877326</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15876,7 +14982,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15909,7 +15015,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15942,7 +15048,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15975,7 +15081,7 @@
         <v>755002.2415877326</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16008,7 +15114,7 @@
         <v>755002.2415877326</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16041,7 +15147,7 @@
         <v>755765.8261877325</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16074,7 +15180,7 @@
         <v>759874.9274877325</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16107,7 +15213,7 @@
         <v>759793.9274877325</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17394,7 +16500,7 @@
         <v>727117.1846877324</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17427,7 +16533,7 @@
         <v>723129.4446877324</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17460,7 +16566,7 @@
         <v>723129.4446877324</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17493,7 +16599,7 @@
         <v>723224.7799877324</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17559,7 +16665,7 @@
         <v>698658.4372877324</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17592,7 +16698,7 @@
         <v>698698.4372877324</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17625,7 +16731,7 @@
         <v>699186.1307877324</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17658,7 +16764,7 @@
         <v>699186.1307877324</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18219,7 +17325,7 @@
         <v>709573.8401877325</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18252,7 +17358,7 @@
         <v>708418.7001877325</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18285,7 +17391,7 @@
         <v>696543.3635877324</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18318,7 +17424,7 @@
         <v>696926.3532877325</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18351,7 +17457,7 @@
         <v>696926.3532877325</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18417,7 +17523,7 @@
         <v>672651.7174877324</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18450,7 +17556,7 @@
         <v>672651.7174877324</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18483,7 +17589,7 @@
         <v>675478.7318877324</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18516,7 +17622,7 @@
         <v>675478.7318877324</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18582,7 +17688,7 @@
         <v>675478.7318877324</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18681,7 +17787,7 @@
         <v>674454.6951877325</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18747,7 +17853,7 @@
         <v>674454.6951877325</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18780,7 +17886,7 @@
         <v>673182.5197877325</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18813,7 +17919,7 @@
         <v>673182.5197877325</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18846,7 +17952,7 @@
         <v>673182.5197877325</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18879,7 +17985,7 @@
         <v>673184.6451877325</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18912,7 +18018,7 @@
         <v>668179.6451877325</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18945,7 +18051,7 @@
         <v>686718.6451877325</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18978,7 +18084,7 @@
         <v>693928.6151125446</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19011,7 +18117,7 @@
         <v>691730.8897125446</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19319,6 +18425,6 @@
       <c r="M537" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest ABT.xlsx
+++ b/BackTest/2019-11-12 BackTest ABT.xlsx
@@ -952,11 +952,9 @@
         <v>246857.5398</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1030,11 +1028,9 @@
         <v>309576.0358</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -3067,16 +3063,18 @@
         <v>418883.9159887852</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
       <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -3106,7 +3104,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +3137,15 @@
         <v>429969.8184887852</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3168,11 +3174,15 @@
         <v>424401.1583887852</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3201,11 +3211,15 @@
         <v>410071.1694887852</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3238,7 +3252,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3271,7 +3289,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3300,11 +3322,15 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3333,11 +3359,15 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3366,11 +3396,15 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3399,11 +3433,15 @@
         <v>434961.9572855774</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3432,11 +3470,15 @@
         <v>468075.2069855774</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3507,15 @@
         <v>482322.6840855774</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3498,11 +3544,15 @@
         <v>482822.6840855774</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3531,11 +3581,15 @@
         <v>481628.9522855774</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3568,7 +3622,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3601,7 +3659,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3634,7 +3696,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3667,7 +3733,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3700,7 +3770,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3803,15 @@
         <v>417374.0530855774</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3766,7 +3844,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3799,7 +3881,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3832,7 +3918,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3865,7 +3955,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3898,7 +3992,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3931,7 +4029,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3964,7 +4066,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3997,7 +4103,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4030,7 +4140,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4177,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4096,7 +4214,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4129,7 +4251,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4162,7 +4288,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4195,7 +4325,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4228,7 +4362,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4261,7 +4399,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4294,7 +4436,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4327,7 +4473,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4360,7 +4510,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4393,7 +4547,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4426,7 +4584,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4459,7 +4621,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4492,7 +4658,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4525,7 +4695,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4558,7 +4732,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4591,7 +4769,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4806,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4657,7 +4843,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4690,7 +4880,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4723,7 +4917,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4756,7 +4954,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4789,7 +4991,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4822,7 +5028,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4855,7 +5065,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4888,7 +5102,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4921,7 +5139,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4954,7 +5176,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4987,7 +5213,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5020,7 +5250,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5053,7 +5287,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5086,7 +5324,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5119,7 +5361,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5152,7 +5398,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5185,7 +5435,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5472,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5251,7 +5509,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5284,7 +5546,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5317,7 +5583,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5350,7 +5620,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5383,7 +5657,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5416,7 +5694,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5449,7 +5731,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5482,7 +5768,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5515,7 +5805,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5548,7 +5842,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5581,7 +5879,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5614,7 +5916,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5647,7 +5953,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5680,7 +5990,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5713,7 +6027,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5746,7 +6064,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5779,7 +6101,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5812,7 +6138,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5845,7 +6175,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5878,7 +6212,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5911,7 +6249,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5940,11 +6282,15 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5973,11 +6319,15 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6006,11 +6356,15 @@
         <v>478039.2848869226</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6039,11 +6393,15 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6072,11 +6430,15 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +6467,15 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6138,11 +6504,15 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +6541,15 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +6578,15 @@
         <v>477401.2848869226</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6237,11 +6615,15 @@
         <v>477326.4869869226</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +6652,15 @@
         <v>477464.4869869226</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6307,7 +6693,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6340,7 +6730,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6767,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6406,7 +6804,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6439,7 +6841,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6472,7 +6878,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6505,7 +6915,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6538,7 +6952,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6571,7 +6989,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6604,7 +7026,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6637,7 +7063,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6670,7 +7100,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6703,7 +7137,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6736,7 +7174,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6769,7 +7211,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6802,7 +7248,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6835,7 +7285,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6868,7 +7322,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6901,7 +7359,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6934,7 +7396,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6967,7 +7433,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7000,7 +7470,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7033,7 +7507,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7066,7 +7544,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7099,7 +7581,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7132,7 +7618,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7165,7 +7655,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7198,7 +7692,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7231,7 +7729,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7264,7 +7766,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7297,7 +7803,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7330,7 +7840,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7363,7 +7877,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7396,7 +7914,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7429,7 +7951,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7462,7 +7988,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7495,7 +8025,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +8062,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7561,7 +8099,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7594,7 +8136,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7627,7 +8173,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7660,7 +8210,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7693,7 +8247,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7726,7 +8284,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7759,7 +8321,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7792,7 +8358,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7825,7 +8395,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7858,7 +8432,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7891,7 +8469,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7924,7 +8506,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7957,7 +8543,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7990,7 +8580,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8023,7 +8617,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8056,7 +8654,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +8687,15 @@
         <v>493539.5823274184</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8122,7 +8728,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8155,7 +8765,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8188,7 +8802,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8221,7 +8839,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8250,11 +8872,15 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8283,11 +8909,15 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8316,11 +8946,15 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8349,11 +8983,15 @@
         <v>491117.7576274184</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8382,11 +9020,15 @@
         <v>490602.8463274184</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8415,11 +9057,15 @@
         <v>492234.7890274184</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +9094,15 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8481,11 +9131,15 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8514,11 +9168,15 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +9205,15 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8580,11 +9242,15 @@
         <v>490372.6328419483</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8617,7 +9283,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8650,7 +9320,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9357,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8716,7 +9394,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8749,7 +9431,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8782,7 +9468,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8815,7 +9505,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8848,7 +9542,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8881,7 +9579,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8914,7 +9616,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8947,7 +9653,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8980,7 +9690,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9013,7 +9727,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9046,7 +9764,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9079,7 +9801,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9112,7 +9838,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9145,7 +9875,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9178,7 +9912,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9211,7 +9949,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9244,7 +9986,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9277,7 +10023,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9310,7 +10060,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9343,7 +10097,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9376,7 +10134,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9409,7 +10171,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9442,7 +10208,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9475,7 +10245,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9508,7 +10282,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9541,7 +10319,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9574,7 +10356,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9607,7 +10393,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9640,7 +10430,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9673,7 +10467,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9706,7 +10504,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9739,7 +10541,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9772,7 +10578,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9805,7 +10615,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10652,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9871,7 +10689,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9904,7 +10726,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9937,7 +10763,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9970,7 +10800,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9999,14 +10833,16 @@
         <v>656790.3456890628</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
@@ -10032,7 +10868,7 @@
         <v>652416.6881142427</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10065,7 +10901,7 @@
         <v>668837.3927847362</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10098,7 +10934,7 @@
         <v>689969.3606847363</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10131,7 +10967,7 @@
         <v>678763.9979847362</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10164,7 +11000,7 @@
         <v>673720.2754847362</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10197,7 +11033,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10230,7 +11066,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10263,7 +11099,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10296,7 +11132,7 @@
         <v>631193.1460847362</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10329,7 +11165,7 @@
         <v>668822.0130847362</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10362,7 +11198,7 @@
         <v>682150.0220847361</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10395,7 +11231,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10428,7 +11264,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10461,7 +11297,7 @@
         <v>680539.6601847361</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10494,7 +11330,7 @@
         <v>687611.3563847361</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10527,7 +11363,7 @@
         <v>686310.8446847361</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10560,7 +11396,7 @@
         <v>663191.6943847361</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10593,7 +11429,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10626,7 +11462,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10659,7 +11495,7 @@
         <v>656177.3026847361</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10725,7 +11561,7 @@
         <v>648896.6198847361</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10791,7 +11627,7 @@
         <v>651402.8629847361</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10824,7 +11660,7 @@
         <v>654509.0459847361</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10857,7 +11693,7 @@
         <v>665939.9603847361</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10890,7 +11726,7 @@
         <v>660509.8605847361</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10923,7 +11759,7 @@
         <v>658423.7993847361</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10989,7 +11825,7 @@
         <v>679129.3411847361</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11088,7 +11924,7 @@
         <v>681996.2754847361</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11121,7 +11957,7 @@
         <v>683660.817184736</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11154,7 +11990,7 @@
         <v>683660.817184736</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11187,7 +12023,7 @@
         <v>689876.557884736</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11220,7 +12056,7 @@
         <v>687802.9786190643</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12804,7 +13640,7 @@
         <v>721528.3290877322</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
